--- a/scripts/correlation/metric_df/AAL_metrics.xlsx
+++ b/scripts/correlation/metric_df/AAL_metrics.xlsx
@@ -653,16 +653,16 @@
         <v>0.384560241</v>
       </c>
       <c r="C9" t="n">
-        <v>1.824899080092367</v>
+        <v>1.879699471262461</v>
       </c>
       <c r="D9" t="n">
-        <v>1.824899080092367</v>
+        <v>1.934499862432555</v>
       </c>
       <c r="E9" t="n">
-        <v>1.824899080092367</v>
+        <v>3.759398942524922</v>
       </c>
       <c r="F9" t="n">
-        <v>0.9583112399999986</v>
+        <v>1.044442319999999</v>
       </c>
       <c r="G9" t="inlineStr">
         <is>
@@ -680,16 +680,16 @@
         <v>0.64915704</v>
       </c>
       <c r="C10" t="n">
-        <v>1.910583370180939</v>
+        <v>1.888273611267678</v>
       </c>
       <c r="D10" t="n">
         <v>1.910583370180939</v>
       </c>
       <c r="E10" t="n">
-        <v>1.910583370180939</v>
+        <v>3.776547222535355</v>
       </c>
       <c r="F10" t="n">
-        <v>2.652002525252526</v>
+        <v>2.578956608160815</v>
       </c>
       <c r="G10" t="inlineStr"/>
     </row>
@@ -703,16 +703,16 @@
         <v>1.180320179</v>
       </c>
       <c r="C11" t="n">
-        <v>3.938433140488909</v>
+        <v>2.05341622978308</v>
       </c>
       <c r="D11" t="n">
-        <v>3.938433140488909</v>
+        <v>2.05341622978308</v>
       </c>
       <c r="E11" t="n">
-        <v>3.938433140488909</v>
+        <v>2.05341622978308</v>
       </c>
       <c r="F11" t="n">
-        <v>8.504671733840048</v>
+        <v>5.915408140814083</v>
       </c>
       <c r="G11" t="inlineStr"/>
     </row>
@@ -753,16 +753,16 @@
         <v>2.14444015725</v>
       </c>
       <c r="C13" t="n">
-        <v>2.170830920556838</v>
+        <v>1.965284185598133</v>
       </c>
       <c r="D13" t="n">
         <v>2.170830920556838</v>
       </c>
       <c r="E13" t="n">
-        <v>2.170830920556838</v>
+        <v>3.930568371196265</v>
       </c>
       <c r="F13" t="n">
-        <v>0.9650379437943786</v>
+        <v>0.8258490849084912</v>
       </c>
       <c r="G13" t="inlineStr">
         <is>
@@ -780,16 +780,16 @@
         <v>1.638516441</v>
       </c>
       <c r="C14" t="n">
-        <v>1.896530492129717</v>
+        <v>1.859733054738514</v>
       </c>
       <c r="D14" t="n">
         <v>1.926158647457295</v>
       </c>
       <c r="E14" t="n">
-        <v>3.793060984259434</v>
+        <v>5.579199164215541</v>
       </c>
       <c r="F14" t="n">
-        <v>19.76249380061994</v>
+        <v>18.36697768223178</v>
       </c>
       <c r="G14" t="inlineStr"/>
     </row>
@@ -803,16 +803,16 @@
         <v>-0.1156587283333333</v>
       </c>
       <c r="C15" t="n">
-        <v>1.844472854319896</v>
+        <v>2.422755800553527</v>
       </c>
       <c r="D15" t="n">
-        <v>1.844472854319896</v>
+        <v>2.422755800553527</v>
       </c>
       <c r="E15" t="n">
-        <v>1.844472854319896</v>
+        <v>2.422755800553527</v>
       </c>
       <c r="F15" t="n">
-        <v>1.326902499999996</v>
+        <v>3.348733699999993</v>
       </c>
       <c r="G15" t="inlineStr">
         <is>
@@ -830,16 +830,16 @@
         <v>-0.202893996</v>
       </c>
       <c r="C16" t="n">
-        <v>1.955767986496258</v>
+        <v>2.42187151155289</v>
       </c>
       <c r="D16" t="n">
-        <v>1.955767986496258</v>
+        <v>2.42187151155289</v>
       </c>
       <c r="E16" t="n">
-        <v>1.955767986496258</v>
+        <v>2.42187151155289</v>
       </c>
       <c r="F16" t="n">
-        <v>2.219634240000001</v>
+        <v>2.654191240000004</v>
       </c>
       <c r="G16" t="inlineStr"/>
     </row>
@@ -903,16 +903,16 @@
         <v>-0.1986236446666667</v>
       </c>
       <c r="C19" t="n">
-        <v>1.71489161712043</v>
+        <v>2.192024424712523</v>
       </c>
       <c r="D19" t="n">
-        <v>1.71489161712043</v>
+        <v>2.373478855408914</v>
       </c>
       <c r="E19" t="n">
-        <v>1.71489161712043</v>
+        <v>4.384048849425046</v>
       </c>
       <c r="F19" t="n">
-        <v>19.47464246666666</v>
+        <v>16.93832703333333</v>
       </c>
       <c r="G19" t="inlineStr">
         <is>
@@ -930,16 +930,16 @@
         <v>-0.379359657</v>
       </c>
       <c r="C20" t="n">
-        <v>1.770798686109169</v>
+        <v>3.145775448013074</v>
       </c>
       <c r="D20" t="n">
-        <v>1.770798686109169</v>
+        <v>3.145775448013074</v>
       </c>
       <c r="E20" t="n">
-        <v>1.770798686109169</v>
+        <v>3.145775448013074</v>
       </c>
       <c r="F20" t="n">
-        <v>1.784182919999997</v>
+        <v>1.796203879999996</v>
       </c>
       <c r="G20" t="inlineStr">
         <is>
@@ -957,16 +957,16 @@
         <v>-0.469656316</v>
       </c>
       <c r="C21" t="n">
-        <v>1.677303481074935</v>
+        <v>1.669857997159468</v>
       </c>
       <c r="D21" t="n">
         <v>1.677303481074935</v>
       </c>
       <c r="E21" t="n">
-        <v>1.677303481074935</v>
+        <v>3.339715994318936</v>
       </c>
       <c r="F21" t="n">
-        <v>3.229349533333337</v>
+        <v>4.275120000000004</v>
       </c>
       <c r="G21" t="inlineStr"/>
     </row>
@@ -980,16 +980,16 @@
         <v>0.350788226</v>
       </c>
       <c r="C22" t="n">
-        <v>1.600011989804885</v>
+        <v>1.581923325076553</v>
       </c>
       <c r="D22" t="n">
         <v>1.600011989804885</v>
       </c>
       <c r="E22" t="n">
-        <v>1.600011989804885</v>
+        <v>3.163846650153106</v>
       </c>
       <c r="F22" t="n">
-        <v>42.73750796329632</v>
+        <v>43.07604834858486</v>
       </c>
       <c r="G22" t="inlineStr">
         <is>
@@ -1007,16 +1007,16 @@
         <v>0.04139189324999999</v>
       </c>
       <c r="C23" t="n">
-        <v>1.903891026867794</v>
+        <v>1.738654392111573</v>
       </c>
       <c r="D23" t="n">
-        <v>1.908119887503346</v>
+        <v>1.899662166232241</v>
       </c>
       <c r="E23" t="n">
-        <v>3.807782053735587</v>
+        <v>5.21596317633472</v>
       </c>
       <c r="F23" t="n">
-        <v>25.60648640697403</v>
+        <v>17.98904389327821</v>
       </c>
       <c r="G23" t="inlineStr">
         <is>
@@ -1034,16 +1034,16 @@
         <v>1.186352685</v>
       </c>
       <c r="C24" t="n">
-        <v>1.952742836112575</v>
+        <v>2.339847342467588</v>
       </c>
       <c r="D24" t="n">
-        <v>1.952742836112575</v>
+        <v>2.339847342467588</v>
       </c>
       <c r="E24" t="n">
-        <v>1.952742836112575</v>
+        <v>2.339847342467588</v>
       </c>
       <c r="F24" t="n">
-        <v>21.47907028000001</v>
+        <v>44.10197478000001</v>
       </c>
       <c r="G24" t="inlineStr">
         <is>
@@ -1061,16 +1061,16 @@
         <v>1.549582994</v>
       </c>
       <c r="C25" t="n">
-        <v>1.881733706693037</v>
+        <v>2.582703611888574</v>
       </c>
       <c r="D25" t="n">
-        <v>1.881733706693037</v>
+        <v>2.582703611888574</v>
       </c>
       <c r="E25" t="n">
-        <v>1.881733706693037</v>
+        <v>2.582703611888574</v>
       </c>
       <c r="F25" t="n">
-        <v>21.15143896000001</v>
+        <v>27.11279732</v>
       </c>
       <c r="G25" t="inlineStr">
         <is>
@@ -1088,16 +1088,16 @@
         <v>0.949682705</v>
       </c>
       <c r="C26" t="n">
-        <v>1.863657215672761</v>
+        <v>1.824909602345942</v>
       </c>
       <c r="D26" t="n">
         <v>1.863657215672761</v>
       </c>
       <c r="E26" t="n">
-        <v>1.863657215672761</v>
+        <v>3.649819204691884</v>
       </c>
       <c r="F26" t="n">
-        <v>15.45475769005472</v>
+        <v>17.92982791136256</v>
       </c>
       <c r="G26" t="inlineStr"/>
     </row>
@@ -1134,16 +1134,16 @@
         <v>0.821133242</v>
       </c>
       <c r="C28" t="n">
-        <v>1.83051119502839</v>
+        <v>1.647726393874084</v>
       </c>
       <c r="D28" t="n">
         <v>1.83051119502839</v>
       </c>
       <c r="E28" t="n">
-        <v>1.83051119502839</v>
+        <v>3.295452787748169</v>
       </c>
       <c r="F28" t="n">
-        <v>21.87730591392472</v>
+        <v>29.07966613327999</v>
       </c>
       <c r="G28" t="inlineStr">
         <is>
@@ -1188,16 +1188,16 @@
         <v>1.544706267</v>
       </c>
       <c r="C30" t="n">
-        <v>2.057713565502089</v>
+        <v>2.114573297613266</v>
       </c>
       <c r="D30" t="n">
-        <v>2.057713565502089</v>
+        <v>2.114573297613266</v>
       </c>
       <c r="E30" t="n">
-        <v>2.057713565502089</v>
+        <v>2.114573297613266</v>
       </c>
       <c r="F30" t="n">
-        <v>2.145042860000003</v>
+        <v>2.494289240000001</v>
       </c>
       <c r="G30" t="inlineStr">
         <is>
@@ -1265,16 +1265,16 @@
         <v>0.426619067</v>
       </c>
       <c r="C33" t="n">
-        <v>1.04917499079497</v>
+        <v>1.664693174984509</v>
       </c>
       <c r="D33" t="n">
-        <v>1.04917499079497</v>
+        <v>1.762360104945837</v>
       </c>
       <c r="E33" t="n">
-        <v>1.04917499079497</v>
+        <v>3.329386349969019</v>
       </c>
       <c r="F33" t="n">
-        <v>7.565526500000001</v>
+        <v>21.48710625</v>
       </c>
       <c r="G33" t="inlineStr">
         <is>
@@ -1292,16 +1292,16 @@
         <v>0.31258591275</v>
       </c>
       <c r="C34" t="n">
-        <v>1.656675648076949</v>
+        <v>1.724283590237959</v>
       </c>
       <c r="D34" t="n">
-        <v>1.656675648076949</v>
+        <v>1.724283590237959</v>
       </c>
       <c r="E34" t="n">
-        <v>1.656675648076949</v>
+        <v>1.724283590237959</v>
       </c>
       <c r="F34" t="n">
-        <v>24.56787435</v>
+        <v>13.79742215000001</v>
       </c>
       <c r="G34" t="inlineStr">
         <is>
@@ -1319,16 +1319,16 @@
         <v>0.513143012</v>
       </c>
       <c r="C35" t="n">
-        <v>2.032631731546139</v>
+        <v>1.777876934387052</v>
       </c>
       <c r="D35" t="n">
-        <v>2.032631731546139</v>
+        <v>1.777876934387052</v>
       </c>
       <c r="E35" t="n">
-        <v>2.032631731546139</v>
+        <v>1.777876934387052</v>
       </c>
       <c r="F35" t="n">
-        <v>16.30643722294437</v>
+        <v>9.090581741825813</v>
       </c>
       <c r="G35" t="inlineStr">
         <is>
@@ -1346,16 +1346,16 @@
         <v>1.214810581</v>
       </c>
       <c r="C36" t="n">
-        <v>2.386004558665317</v>
+        <v>2.316494608932117</v>
       </c>
       <c r="D36" t="n">
-        <v>2.386004558665317</v>
+        <v>2.316494608932117</v>
       </c>
       <c r="E36" t="n">
-        <v>2.386004558665317</v>
+        <v>2.316494608932117</v>
       </c>
       <c r="F36" t="n">
-        <v>8.772130900000002</v>
+        <v>4.522982200000001</v>
       </c>
       <c r="G36" t="inlineStr">
         <is>
@@ -1373,16 +1373,16 @@
         <v>-0.6648078039999999</v>
       </c>
       <c r="C37" t="n">
-        <v>1.936917597687596</v>
+        <v>1.568277264894773</v>
       </c>
       <c r="D37" t="n">
-        <v>1.936917597687596</v>
+        <v>1.568277264894773</v>
       </c>
       <c r="E37" t="n">
-        <v>1.936917597687596</v>
+        <v>1.568277264894773</v>
       </c>
       <c r="F37" t="n">
-        <v>6.31450295029503</v>
+        <v>8.106840817415074</v>
       </c>
       <c r="G37" t="inlineStr">
         <is>
@@ -1400,16 +1400,16 @@
         <v>0.1435626945</v>
       </c>
       <c r="C38" t="n">
-        <v>2.196111397777991</v>
+        <v>1.86132352102596</v>
       </c>
       <c r="D38" t="n">
-        <v>2.196111397777991</v>
+        <v>1.86132352102596</v>
       </c>
       <c r="E38" t="n">
-        <v>2.196111397777991</v>
+        <v>1.86132352102596</v>
       </c>
       <c r="F38" t="n">
-        <v>17.01846274261463</v>
+        <v>7.212414914064149</v>
       </c>
       <c r="G38" t="inlineStr">
         <is>
@@ -1481,16 +1481,16 @@
         <v>1.179782491</v>
       </c>
       <c r="C41" t="n">
-        <v>2.021220999601209</v>
+        <v>2.016603341907997</v>
       </c>
       <c r="D41" t="n">
-        <v>2.021220999601209</v>
+        <v>2.016603341907997</v>
       </c>
       <c r="E41" t="n">
-        <v>2.021220999601209</v>
+        <v>2.016603341907997</v>
       </c>
       <c r="F41" t="n">
-        <v>29.55949555044496</v>
+        <v>11.6487693730627</v>
       </c>
       <c r="G41" t="inlineStr">
         <is>
@@ -1562,16 +1562,16 @@
         <v>0.891766033</v>
       </c>
       <c r="C44" t="n">
-        <v>1.681513394327954</v>
+        <v>1.390802426082407</v>
       </c>
       <c r="D44" t="n">
         <v>1.681513394327954</v>
       </c>
       <c r="E44" t="n">
-        <v>1.681513394327954</v>
+        <v>2.781604852164814</v>
       </c>
       <c r="F44" t="n">
-        <v>5.208700760076009</v>
+        <v>5.941189363936392</v>
       </c>
       <c r="G44" t="inlineStr">
         <is>
@@ -1616,16 +1616,16 @@
         <v>0.7640217545000001</v>
       </c>
       <c r="C46" t="n">
-        <v>1.237559254482525</v>
+        <v>1.993078126869602</v>
       </c>
       <c r="D46" t="n">
-        <v>1.237559254482525</v>
+        <v>1.993078126869602</v>
       </c>
       <c r="E46" t="n">
-        <v>1.237559254482525</v>
+        <v>1.993078126869602</v>
       </c>
       <c r="F46" t="n">
-        <v>1.303767476747673</v>
+        <v>3.604707245724574</v>
       </c>
       <c r="G46" t="inlineStr">
         <is>
@@ -1643,16 +1643,16 @@
         <v>0.9171362446666667</v>
       </c>
       <c r="C47" t="n">
-        <v>1.680493591656133</v>
+        <v>1.5546402969027</v>
       </c>
       <c r="D47" t="n">
-        <v>1.680493591656133</v>
+        <v>1.5546402969027</v>
       </c>
       <c r="E47" t="n">
-        <v>1.680493591656133</v>
+        <v>1.5546402969027</v>
       </c>
       <c r="F47" t="n">
-        <v>14.12716278372164</v>
+        <v>12.78702099790021</v>
       </c>
       <c r="G47" t="inlineStr">
         <is>
@@ -1751,16 +1751,16 @@
         <v>1.428541118333333</v>
       </c>
       <c r="C51" t="n">
-        <v>1.824471573310253</v>
+        <v>1.620930709280051</v>
       </c>
       <c r="D51" t="n">
-        <v>1.824471573310253</v>
+        <v>1.620930709280051</v>
       </c>
       <c r="E51" t="n">
-        <v>1.824471573310253</v>
+        <v>1.620930709280051</v>
       </c>
       <c r="F51" t="n">
-        <v>30.477533775</v>
+        <v>17.49698115000001</v>
       </c>
       <c r="G51" t="inlineStr">
         <is>
@@ -1778,16 +1778,16 @@
         <v>0.3721878165</v>
       </c>
       <c r="C52" t="n">
-        <v>1.137665827630168</v>
+        <v>1.882777586818324</v>
       </c>
       <c r="D52" t="n">
-        <v>1.137665827630168</v>
+        <v>1.882777586818324</v>
       </c>
       <c r="E52" t="n">
-        <v>1.137665827630168</v>
+        <v>1.882777586818324</v>
       </c>
       <c r="F52" t="n">
-        <v>1.12203474347435</v>
+        <v>2.181886268626866</v>
       </c>
       <c r="G52" t="inlineStr">
         <is>

--- a/scripts/correlation/metric_df/AAL_metrics.xlsx
+++ b/scripts/correlation/metric_df/AAL_metrics.xlsx
@@ -480,16 +480,16 @@
         <v>2.240206323</v>
       </c>
       <c r="C2" t="n">
-        <v>2.545183117472284</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>2.545183117472284</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>2.545183117472284</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0.2957004700470066</v>
+        <v>0</v>
       </c>
       <c r="G2" t="inlineStr">
         <is>
@@ -507,16 +507,16 @@
         <v>0.286337308</v>
       </c>
       <c r="C3" t="n">
-        <v>2.104865982788988</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>2.104865982788988</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>2.104865982788988</v>
+        <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>1.286544565567667</v>
+        <v>0</v>
       </c>
       <c r="G3" t="inlineStr">
         <is>
@@ -580,16 +580,16 @@
         <v>0.4241996375</v>
       </c>
       <c r="C6" t="n">
-        <v>2.12907997324471</v>
+        <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>2.12907997324471</v>
+        <v>0</v>
       </c>
       <c r="E6" t="n">
-        <v>2.12907997324471</v>
+        <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>0.6843510982235121</v>
+        <v>0</v>
       </c>
       <c r="G6" t="inlineStr">
         <is>
@@ -653,16 +653,16 @@
         <v>0.384560241</v>
       </c>
       <c r="C9" t="n">
-        <v>1.879699471262461</v>
+        <v>1.748402026921482</v>
       </c>
       <c r="D9" t="n">
-        <v>1.934499862432555</v>
+        <v>1.824899080092367</v>
       </c>
       <c r="E9" t="n">
-        <v>3.759398942524922</v>
+        <v>3.496804053842963</v>
       </c>
       <c r="F9" t="n">
-        <v>1.044442319999999</v>
+        <v>0.7469601100000001</v>
       </c>
       <c r="G9" t="inlineStr">
         <is>
@@ -703,16 +703,16 @@
         <v>1.180320179</v>
       </c>
       <c r="C11" t="n">
-        <v>2.05341622978308</v>
+        <v>3.938433140488909</v>
       </c>
       <c r="D11" t="n">
-        <v>2.05341622978308</v>
+        <v>3.938433140488909</v>
       </c>
       <c r="E11" t="n">
-        <v>2.05341622978308</v>
+        <v>3.938433140488909</v>
       </c>
       <c r="F11" t="n">
-        <v>5.915408140814083</v>
+        <v>8.504671733840048</v>
       </c>
       <c r="G11" t="inlineStr"/>
     </row>
@@ -726,16 +726,16 @@
         <v>1.58052373475</v>
       </c>
       <c r="C12" t="n">
-        <v>2.273759042726899</v>
+        <v>0</v>
       </c>
       <c r="D12" t="n">
-        <v>2.273759042726899</v>
+        <v>0</v>
       </c>
       <c r="E12" t="n">
-        <v>2.273759042726899</v>
+        <v>0</v>
       </c>
       <c r="F12" t="n">
-        <v>1.908781921807819</v>
+        <v>0</v>
       </c>
       <c r="G12" t="inlineStr">
         <is>
@@ -803,16 +803,16 @@
         <v>-0.1156587283333333</v>
       </c>
       <c r="C15" t="n">
-        <v>2.422755800553527</v>
+        <v>1.844472854319896</v>
       </c>
       <c r="D15" t="n">
-        <v>2.422755800553527</v>
+        <v>1.844472854319896</v>
       </c>
       <c r="E15" t="n">
-        <v>2.422755800553527</v>
+        <v>1.844472854319896</v>
       </c>
       <c r="F15" t="n">
-        <v>3.348733699999993</v>
+        <v>1.326902499999996</v>
       </c>
       <c r="G15" t="inlineStr">
         <is>
@@ -830,16 +830,16 @@
         <v>-0.202893996</v>
       </c>
       <c r="C16" t="n">
-        <v>2.42187151155289</v>
+        <v>1.955767986496258</v>
       </c>
       <c r="D16" t="n">
-        <v>2.42187151155289</v>
+        <v>1.955767986496258</v>
       </c>
       <c r="E16" t="n">
-        <v>2.42187151155289</v>
+        <v>1.955767986496258</v>
       </c>
       <c r="F16" t="n">
-        <v>2.654191240000004</v>
+        <v>2.219634240000001</v>
       </c>
       <c r="G16" t="inlineStr"/>
     </row>
@@ -903,16 +903,16 @@
         <v>-0.1986236446666667</v>
       </c>
       <c r="C19" t="n">
-        <v>2.192024424712523</v>
+        <v>1.862730805568281</v>
       </c>
       <c r="D19" t="n">
-        <v>2.373478855408914</v>
+        <v>2.010569994016131</v>
       </c>
       <c r="E19" t="n">
-        <v>4.384048849425046</v>
+        <v>3.725461611136561</v>
       </c>
       <c r="F19" t="n">
-        <v>16.93832703333333</v>
+        <v>17.30735466666665</v>
       </c>
       <c r="G19" t="inlineStr">
         <is>
@@ -930,16 +930,16 @@
         <v>-0.379359657</v>
       </c>
       <c r="C20" t="n">
-        <v>3.145775448013074</v>
+        <v>1.770798686109169</v>
       </c>
       <c r="D20" t="n">
-        <v>3.145775448013074</v>
+        <v>1.770798686109169</v>
       </c>
       <c r="E20" t="n">
-        <v>3.145775448013074</v>
+        <v>1.770798686109169</v>
       </c>
       <c r="F20" t="n">
-        <v>1.796203879999996</v>
+        <v>1.784182919999997</v>
       </c>
       <c r="G20" t="inlineStr">
         <is>
@@ -1007,16 +1007,16 @@
         <v>0.04139189324999999</v>
       </c>
       <c r="C23" t="n">
-        <v>1.738654392111573</v>
+        <v>1.724610006213022</v>
       </c>
       <c r="D23" t="n">
-        <v>1.899662166232241</v>
+        <v>1.908119887503346</v>
       </c>
       <c r="E23" t="n">
-        <v>5.21596317633472</v>
+        <v>5.173830018639067</v>
       </c>
       <c r="F23" t="n">
-        <v>17.98904389327821</v>
+        <v>26.46877407185162</v>
       </c>
       <c r="G23" t="inlineStr">
         <is>
@@ -1034,16 +1034,16 @@
         <v>1.186352685</v>
       </c>
       <c r="C24" t="n">
-        <v>2.339847342467588</v>
+        <v>1.952742836112575</v>
       </c>
       <c r="D24" t="n">
-        <v>2.339847342467588</v>
+        <v>1.952742836112575</v>
       </c>
       <c r="E24" t="n">
-        <v>2.339847342467588</v>
+        <v>1.952742836112575</v>
       </c>
       <c r="F24" t="n">
-        <v>44.10197478000001</v>
+        <v>21.47907028000001</v>
       </c>
       <c r="G24" t="inlineStr">
         <is>
@@ -1061,16 +1061,16 @@
         <v>1.549582994</v>
       </c>
       <c r="C25" t="n">
-        <v>2.582703611888574</v>
+        <v>1.881733706693037</v>
       </c>
       <c r="D25" t="n">
-        <v>2.582703611888574</v>
+        <v>1.881733706693037</v>
       </c>
       <c r="E25" t="n">
-        <v>2.582703611888574</v>
+        <v>1.881733706693037</v>
       </c>
       <c r="F25" t="n">
-        <v>27.11279732</v>
+        <v>21.15143896000001</v>
       </c>
       <c r="G25" t="inlineStr">
         <is>
@@ -1188,16 +1188,16 @@
         <v>1.544706267</v>
       </c>
       <c r="C30" t="n">
-        <v>2.114573297613266</v>
+        <v>2.057713565502089</v>
       </c>
       <c r="D30" t="n">
-        <v>2.114573297613266</v>
+        <v>2.057713565502089</v>
       </c>
       <c r="E30" t="n">
-        <v>2.114573297613266</v>
+        <v>2.057713565502089</v>
       </c>
       <c r="F30" t="n">
-        <v>2.494289240000001</v>
+        <v>2.145042860000003</v>
       </c>
       <c r="G30" t="inlineStr">
         <is>
@@ -1265,16 +1265,16 @@
         <v>0.426619067</v>
       </c>
       <c r="C33" t="n">
-        <v>1.664693174984509</v>
+        <v>1.179538925091998</v>
       </c>
       <c r="D33" t="n">
-        <v>1.762360104945837</v>
+        <v>1.309902859389025</v>
       </c>
       <c r="E33" t="n">
-        <v>3.329386349969019</v>
+        <v>2.359077850183995</v>
       </c>
       <c r="F33" t="n">
-        <v>21.48710625</v>
+        <v>9.734501999999996</v>
       </c>
       <c r="G33" t="inlineStr">
         <is>
@@ -1292,16 +1292,16 @@
         <v>0.31258591275</v>
       </c>
       <c r="C34" t="n">
-        <v>1.724283590237959</v>
+        <v>1.656675648076949</v>
       </c>
       <c r="D34" t="n">
-        <v>1.724283590237959</v>
+        <v>1.656675648076949</v>
       </c>
       <c r="E34" t="n">
-        <v>1.724283590237959</v>
+        <v>1.656675648076949</v>
       </c>
       <c r="F34" t="n">
-        <v>13.79742215000001</v>
+        <v>24.56787435</v>
       </c>
       <c r="G34" t="inlineStr">
         <is>
@@ -1319,16 +1319,16 @@
         <v>0.513143012</v>
       </c>
       <c r="C35" t="n">
-        <v>1.777876934387052</v>
+        <v>2.032631731546139</v>
       </c>
       <c r="D35" t="n">
-        <v>1.777876934387052</v>
+        <v>2.032631731546139</v>
       </c>
       <c r="E35" t="n">
-        <v>1.777876934387052</v>
+        <v>2.032631731546139</v>
       </c>
       <c r="F35" t="n">
-        <v>9.090581741825813</v>
+        <v>16.30643722294437</v>
       </c>
       <c r="G35" t="inlineStr">
         <is>
@@ -1346,16 +1346,16 @@
         <v>1.214810581</v>
       </c>
       <c r="C36" t="n">
-        <v>2.316494608932117</v>
+        <v>2.386004558665317</v>
       </c>
       <c r="D36" t="n">
-        <v>2.316494608932117</v>
+        <v>2.386004558665317</v>
       </c>
       <c r="E36" t="n">
-        <v>2.316494608932117</v>
+        <v>2.386004558665317</v>
       </c>
       <c r="F36" t="n">
-        <v>4.522982200000001</v>
+        <v>8.772130900000002</v>
       </c>
       <c r="G36" t="inlineStr">
         <is>
@@ -1373,16 +1373,16 @@
         <v>-0.6648078039999999</v>
       </c>
       <c r="C37" t="n">
-        <v>1.568277264894773</v>
+        <v>1.936917597687596</v>
       </c>
       <c r="D37" t="n">
-        <v>1.568277264894773</v>
+        <v>1.936917597687596</v>
       </c>
       <c r="E37" t="n">
-        <v>1.568277264894773</v>
+        <v>1.936917597687596</v>
       </c>
       <c r="F37" t="n">
-        <v>8.106840817415074</v>
+        <v>6.31450295029503</v>
       </c>
       <c r="G37" t="inlineStr">
         <is>
@@ -1400,16 +1400,16 @@
         <v>0.1435626945</v>
       </c>
       <c r="C38" t="n">
-        <v>1.86132352102596</v>
+        <v>2.196111397777991</v>
       </c>
       <c r="D38" t="n">
-        <v>1.86132352102596</v>
+        <v>2.196111397777991</v>
       </c>
       <c r="E38" t="n">
-        <v>1.86132352102596</v>
+        <v>2.196111397777991</v>
       </c>
       <c r="F38" t="n">
-        <v>7.212414914064149</v>
+        <v>17.01846274261463</v>
       </c>
       <c r="G38" t="inlineStr">
         <is>
@@ -1481,16 +1481,16 @@
         <v>1.179782491</v>
       </c>
       <c r="C41" t="n">
-        <v>2.016603341907997</v>
+        <v>2.021220999601209</v>
       </c>
       <c r="D41" t="n">
-        <v>2.016603341907997</v>
+        <v>2.021220999601209</v>
       </c>
       <c r="E41" t="n">
-        <v>2.016603341907997</v>
+        <v>2.021220999601209</v>
       </c>
       <c r="F41" t="n">
-        <v>11.6487693730627</v>
+        <v>29.55949555044496</v>
       </c>
       <c r="G41" t="inlineStr">
         <is>
@@ -1508,16 +1508,16 @@
         <v>1.782290507333333</v>
       </c>
       <c r="C42" t="n">
-        <v>1.986463989616981</v>
+        <v>0</v>
       </c>
       <c r="D42" t="n">
-        <v>1.986463989616981</v>
+        <v>0</v>
       </c>
       <c r="E42" t="n">
-        <v>1.986463989616981</v>
+        <v>0</v>
       </c>
       <c r="F42" t="n">
-        <v>0.2711967803219664</v>
+        <v>0</v>
       </c>
       <c r="G42" t="inlineStr">
         <is>
@@ -1562,16 +1562,16 @@
         <v>0.891766033</v>
       </c>
       <c r="C44" t="n">
-        <v>1.390802426082407</v>
+        <v>1.880446338644047</v>
       </c>
       <c r="D44" t="n">
-        <v>1.681513394327954</v>
+        <v>2.079379282960139</v>
       </c>
       <c r="E44" t="n">
-        <v>2.781604852164814</v>
+        <v>3.760892677288093</v>
       </c>
       <c r="F44" t="n">
-        <v>5.941189363936392</v>
+        <v>8.39641511151115</v>
       </c>
       <c r="G44" t="inlineStr">
         <is>
@@ -1616,16 +1616,16 @@
         <v>0.7640217545000001</v>
       </c>
       <c r="C46" t="n">
-        <v>1.993078126869602</v>
+        <v>1.237559254482525</v>
       </c>
       <c r="D46" t="n">
-        <v>1.993078126869602</v>
+        <v>1.237559254482525</v>
       </c>
       <c r="E46" t="n">
-        <v>1.993078126869602</v>
+        <v>1.237559254482525</v>
       </c>
       <c r="F46" t="n">
-        <v>3.604707245724574</v>
+        <v>1.303767476747673</v>
       </c>
       <c r="G46" t="inlineStr">
         <is>
@@ -1643,16 +1643,16 @@
         <v>0.9171362446666667</v>
       </c>
       <c r="C47" t="n">
-        <v>1.5546402969027</v>
+        <v>1.680493591656133</v>
       </c>
       <c r="D47" t="n">
-        <v>1.5546402969027</v>
+        <v>1.680493591656133</v>
       </c>
       <c r="E47" t="n">
-        <v>1.5546402969027</v>
+        <v>1.680493591656133</v>
       </c>
       <c r="F47" t="n">
-        <v>12.78702099790021</v>
+        <v>14.12716278372164</v>
       </c>
       <c r="G47" t="inlineStr">
         <is>
@@ -1751,16 +1751,16 @@
         <v>1.428541118333333</v>
       </c>
       <c r="C51" t="n">
-        <v>1.620930709280051</v>
+        <v>1.824471573310253</v>
       </c>
       <c r="D51" t="n">
-        <v>1.620930709280051</v>
+        <v>1.824471573310253</v>
       </c>
       <c r="E51" t="n">
-        <v>1.620930709280051</v>
+        <v>1.824471573310253</v>
       </c>
       <c r="F51" t="n">
-        <v>17.49698115000001</v>
+        <v>30.477533775</v>
       </c>
       <c r="G51" t="inlineStr">
         <is>
@@ -1778,16 +1778,16 @@
         <v>0.3721878165</v>
       </c>
       <c r="C52" t="n">
-        <v>1.882777586818324</v>
+        <v>1.137665827630168</v>
       </c>
       <c r="D52" t="n">
-        <v>1.882777586818324</v>
+        <v>1.137665827630168</v>
       </c>
       <c r="E52" t="n">
-        <v>1.882777586818324</v>
+        <v>1.137665827630168</v>
       </c>
       <c r="F52" t="n">
-        <v>2.181886268626866</v>
+        <v>1.12203474347435</v>
       </c>
       <c r="G52" t="inlineStr">
         <is>

--- a/scripts/correlation/metric_df/AAL_metrics.xlsx
+++ b/scripts/correlation/metric_df/AAL_metrics.xlsx
@@ -545,7 +545,11 @@
       <c r="F4" t="n">
         <v>9.644567140000001</v>
       </c>
-      <c r="G4" t="inlineStr"/>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>lipid/free</t>
+        </is>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
@@ -568,7 +572,11 @@
       <c r="F5" t="n">
         <v>3.889493000000007</v>
       </c>
-      <c r="G5" t="inlineStr"/>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>lipid/free</t>
+        </is>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
@@ -618,7 +626,11 @@
       <c r="F7" t="n">
         <v>11.43067193333333</v>
       </c>
-      <c r="G7" t="inlineStr"/>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>lipid/free</t>
+        </is>
+      </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
@@ -641,7 +653,11 @@
       <c r="F8" t="n">
         <v>8.653719799999996</v>
       </c>
-      <c r="G8" t="inlineStr"/>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>lipid/free</t>
+        </is>
+      </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
@@ -691,7 +707,11 @@
       <c r="F10" t="n">
         <v>2.578956608160815</v>
       </c>
-      <c r="G10" t="inlineStr"/>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>lipid/free</t>
+        </is>
+      </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
@@ -714,7 +734,11 @@
       <c r="F11" t="n">
         <v>8.504671733840048</v>
       </c>
-      <c r="G11" t="inlineStr"/>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>lipid/free</t>
+        </is>
+      </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
@@ -791,7 +815,11 @@
       <c r="F14" t="n">
         <v>18.36697768223178</v>
       </c>
-      <c r="G14" t="inlineStr"/>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>lipid/free</t>
+        </is>
+      </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="inlineStr">
@@ -841,7 +869,11 @@
       <c r="F16" t="n">
         <v>2.219634240000001</v>
       </c>
-      <c r="G16" t="inlineStr"/>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>lipid/free</t>
+        </is>
+      </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="inlineStr">
@@ -864,7 +896,11 @@
       <c r="F17" t="n">
         <v>6.404429833333334</v>
       </c>
-      <c r="G17" t="inlineStr"/>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>lipid/free</t>
+        </is>
+      </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="inlineStr">
@@ -968,7 +1004,11 @@
       <c r="F21" t="n">
         <v>4.275120000000004</v>
       </c>
-      <c r="G21" t="inlineStr"/>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>lipid/free</t>
+        </is>
+      </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="inlineStr">
@@ -1099,7 +1139,11 @@
       <c r="F26" t="n">
         <v>17.92982791136256</v>
       </c>
-      <c r="G26" t="inlineStr"/>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>lipid/free</t>
+        </is>
+      </c>
     </row>
     <row r="27">
       <c r="A27" s="1" t="inlineStr">
@@ -1122,7 +1166,11 @@
       <c r="F27" t="n">
         <v>11.90423596</v>
       </c>
-      <c r="G27" t="inlineStr"/>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>lipid/free</t>
+        </is>
+      </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="inlineStr">
@@ -1226,7 +1274,11 @@
       <c r="F31" t="n">
         <v>6.011923522352238</v>
       </c>
-      <c r="G31" t="inlineStr"/>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>lipid/free</t>
+        </is>
+      </c>
     </row>
     <row r="32">
       <c r="A32" s="1" t="inlineStr">

--- a/scripts/correlation/metric_df/AAL_metrics.xlsx
+++ b/scripts/correlation/metric_df/AAL_metrics.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G53"/>
+  <dimension ref="A1:G52"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -480,16 +480,16 @@
         <v>2.240206323</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>2.545183117472284</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>2.545183117472284</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>2.545183117472284</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>0.2957004700470066</v>
       </c>
       <c r="G2" t="inlineStr">
         <is>
@@ -507,16 +507,16 @@
         <v>0.286337308</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>2.104865982788988</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>2.104865982788988</v>
       </c>
       <c r="E3" t="n">
-        <v>0</v>
+        <v>2.104865982788988</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>1.286544565567667</v>
       </c>
       <c r="G3" t="inlineStr">
         <is>
@@ -561,16 +561,16 @@
         <v>-0.08973736675000002</v>
       </c>
       <c r="C5" t="n">
-        <v>3.72349594265814</v>
+        <v>2.077310831150319</v>
       </c>
       <c r="D5" t="n">
-        <v>3.72349594265814</v>
+        <v>2.077310831150319</v>
       </c>
       <c r="E5" t="n">
-        <v>3.72349594265814</v>
+        <v>2.077310831150319</v>
       </c>
       <c r="F5" t="n">
-        <v>3.889493000000007</v>
+        <v>4.227940950000008</v>
       </c>
       <c r="G5" t="inlineStr">
         <is>
@@ -588,16 +588,16 @@
         <v>0.4241996375</v>
       </c>
       <c r="C6" t="n">
-        <v>0</v>
+        <v>2.12907997324471</v>
       </c>
       <c r="D6" t="n">
-        <v>0</v>
+        <v>2.12907997324471</v>
       </c>
       <c r="E6" t="n">
-        <v>0</v>
+        <v>2.12907997324471</v>
       </c>
       <c r="F6" t="n">
-        <v>0</v>
+        <v>0.6843510982235121</v>
       </c>
       <c r="G6" t="inlineStr">
         <is>
@@ -608,23 +608,23 @@
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>Fuc(a1-2)Gal(b1-3)GlcNAc(b1-3)Gal(b1-4)Glc</t>
+          <t>Fuc(a1-2)Gal(b1-3)GlcNAc(b1-3)[Gal(b1-4)GlcNAc(b1-6)]Gal(b1-4)Glc</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.27158962025</v>
+        <v>0.16028760825</v>
       </c>
       <c r="C7" t="n">
-        <v>1.941469262417412</v>
+        <v>2.062239079820679</v>
       </c>
       <c r="D7" t="n">
-        <v>1.941469262417412</v>
+        <v>2.062239079820679</v>
       </c>
       <c r="E7" t="n">
-        <v>1.941469262417412</v>
+        <v>2.062239079820679</v>
       </c>
       <c r="F7" t="n">
-        <v>11.43067193333333</v>
+        <v>8.653719799999996</v>
       </c>
       <c r="G7" t="inlineStr">
         <is>
@@ -635,77 +635,77 @@
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>Fuc(a1-2)Gal(b1-3)GlcNAc(b1-3)[Gal(b1-4)GlcNAc(b1-6)]Gal(b1-4)Glc</t>
+          <t>Fuc(a1-2)Gal(b1-3)[Fuc(a1-4)]GlcNAc</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.16028760825</v>
+        <v>0.384560241</v>
       </c>
       <c r="C8" t="n">
-        <v>2.062239079820679</v>
+        <v>1.879699471262461</v>
       </c>
       <c r="D8" t="n">
-        <v>2.062239079820679</v>
+        <v>1.934499862432555</v>
       </c>
       <c r="E8" t="n">
-        <v>2.062239079820679</v>
+        <v>3.759398942524922</v>
       </c>
       <c r="F8" t="n">
-        <v>8.653719799999996</v>
+        <v>1.044442319999999</v>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>lipid/free</t>
+          <t>O</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>Fuc(a1-2)Gal(b1-3)[Fuc(a1-4)]GlcNAc</t>
+          <t>Fuc(a1-2)Gal(b1-3)[Fuc(a1-4)]GlcNAc(b1-3)Gal(b1-4)Glc</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.384560241</v>
+        <v>0.64915704</v>
       </c>
       <c r="C9" t="n">
-        <v>1.748402026921482</v>
+        <v>1.888273611267678</v>
       </c>
       <c r="D9" t="n">
-        <v>1.824899080092367</v>
+        <v>1.910583370180939</v>
       </c>
       <c r="E9" t="n">
-        <v>3.496804053842963</v>
+        <v>3.776547222535355</v>
       </c>
       <c r="F9" t="n">
-        <v>0.7469601100000001</v>
+        <v>2.578956608160815</v>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>O</t>
+          <t>lipid/free</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>Fuc(a1-2)Gal(b1-3)[Fuc(a1-4)]GlcNAc(b1-3)Gal(b1-4)Glc</t>
+          <t>Fuc(a1-2)Gal(b1-3)[Neu5Ac(a2-6)]GlcNAc(b1-3)Gal(b1-4)Glc</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.64915704</v>
+        <v>1.180320179</v>
       </c>
       <c r="C10" t="n">
-        <v>1.888273611267678</v>
+        <v>2.05341622978308</v>
       </c>
       <c r="D10" t="n">
-        <v>1.910583370180939</v>
+        <v>2.05341622978308</v>
       </c>
       <c r="E10" t="n">
-        <v>3.776547222535355</v>
+        <v>2.05341622978308</v>
       </c>
       <c r="F10" t="n">
-        <v>2.578956608160815</v>
+        <v>5.915408140814083</v>
       </c>
       <c r="G10" t="inlineStr">
         <is>
@@ -716,50 +716,50 @@
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>Fuc(a1-2)Gal(b1-3)[Neu5Ac(a2-6)]GlcNAc(b1-3)Gal(b1-4)Glc</t>
+          <t>Fuc(a1-2)Gal(b1-4)GlcNAc</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1.180320179</v>
+        <v>1.58052373475</v>
       </c>
       <c r="C11" t="n">
-        <v>3.938433140488909</v>
+        <v>2.273759042726899</v>
       </c>
       <c r="D11" t="n">
-        <v>3.938433140488909</v>
+        <v>2.273759042726899</v>
       </c>
       <c r="E11" t="n">
-        <v>3.938433140488909</v>
+        <v>2.273759042726899</v>
       </c>
       <c r="F11" t="n">
-        <v>8.504671733840048</v>
+        <v>1.908781921807819</v>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>lipid/free</t>
+          <t>O</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>Fuc(a1-2)Gal(b1-4)GlcNAc</t>
+          <t>Fuc(a1-2)Gal(b1-4)[Fuc(a1-3)]GlcNAc</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>1.58052373475</v>
+        <v>2.14444015725</v>
       </c>
       <c r="C12" t="n">
-        <v>0</v>
+        <v>1.965284185598133</v>
       </c>
       <c r="D12" t="n">
-        <v>0</v>
+        <v>2.170830920556838</v>
       </c>
       <c r="E12" t="n">
-        <v>0</v>
+        <v>3.930568371196265</v>
       </c>
       <c r="F12" t="n">
-        <v>0</v>
+        <v>0.8258490849084912</v>
       </c>
       <c r="G12" t="inlineStr">
         <is>
@@ -770,104 +770,104 @@
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
         <is>
-          <t>Fuc(a1-2)Gal(b1-4)[Fuc(a1-3)]GlcNAc</t>
+          <t>Fuc(a1-2)Gal(b1-4)[Fuc(a1-3)]GlcNAc(b1-3)[Fuc(a1-3)[Gal(b1-4)]GlcNAc(b1-6)]Gal(b1-4)Glc</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>2.14444015725</v>
+        <v>1.638516441</v>
       </c>
       <c r="C13" t="n">
-        <v>1.965284185598133</v>
+        <v>1.911392000330854</v>
       </c>
       <c r="D13" t="n">
-        <v>2.170830920556838</v>
+        <v>1.94111501673313</v>
       </c>
       <c r="E13" t="n">
-        <v>3.930568371196265</v>
+        <v>5.734176000992563</v>
       </c>
       <c r="F13" t="n">
-        <v>0.8258490849084912</v>
+        <v>19.88427059294071</v>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>O</t>
+          <t>lipid/free</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>Fuc(a1-2)Gal(b1-4)[Fuc(a1-3)]GlcNAc(b1-3)[Fuc(a1-3)[Gal(b1-4)]GlcNAc(b1-6)]Gal(b1-4)Glc</t>
+          <t>Fuc(a1-2)[Gal(a1-3)]Gal(b1-3)GalNAc</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1.638516441</v>
+        <v>-0.1156587283333333</v>
       </c>
       <c r="C14" t="n">
-        <v>1.859733054738514</v>
+        <v>1.844472854319896</v>
       </c>
       <c r="D14" t="n">
-        <v>1.926158647457295</v>
+        <v>1.844472854319896</v>
       </c>
       <c r="E14" t="n">
-        <v>5.579199164215541</v>
+        <v>1.844472854319896</v>
       </c>
       <c r="F14" t="n">
-        <v>18.36697768223178</v>
+        <v>1.326902499999996</v>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>lipid/free</t>
+          <t>O</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="inlineStr">
         <is>
-          <t>Fuc(a1-2)[Gal(a1-3)]Gal(b1-3)GalNAc</t>
+          <t>Fuc(a1-2)[Gal(a1-3)]Gal(b1-4)Glc</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>-0.1156587283333333</v>
+        <v>-0.202893996</v>
       </c>
       <c r="C15" t="n">
-        <v>1.844472854319896</v>
+        <v>1.955767986496258</v>
       </c>
       <c r="D15" t="n">
-        <v>1.844472854319896</v>
+        <v>1.955767986496258</v>
       </c>
       <c r="E15" t="n">
-        <v>1.844472854319896</v>
+        <v>1.955767986496258</v>
       </c>
       <c r="F15" t="n">
-        <v>1.326902499999996</v>
+        <v>2.219634240000001</v>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>O</t>
+          <t>lipid/free</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>Fuc(a1-2)[Gal(a1-3)]Gal(b1-4)Glc</t>
+          <t>Fuc(a1-2)[Gal(a1-3)]Gal(b1-4)GlcNAc(b1-3)Gal(b1-4)Glc</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>-0.202893996</v>
+        <v>-0.50647788</v>
       </c>
       <c r="C16" t="n">
-        <v>1.955767986496258</v>
+        <v>2.074553668654954</v>
       </c>
       <c r="D16" t="n">
-        <v>1.955767986496258</v>
+        <v>2.074553668654954</v>
       </c>
       <c r="E16" t="n">
-        <v>1.955767986496258</v>
+        <v>2.074553668654954</v>
       </c>
       <c r="F16" t="n">
-        <v>2.219634240000001</v>
+        <v>6.404429833333334</v>
       </c>
       <c r="G16" t="inlineStr">
         <is>
@@ -878,50 +878,50 @@
     <row r="17">
       <c r="A17" s="1" t="inlineStr">
         <is>
-          <t>Fuc(a1-2)[Gal(a1-3)]Gal(b1-4)GlcNAc(b1-3)Gal(b1-4)Glc</t>
+          <t>Fuc(a1-2)[Gal(a1-3)]Gal(b1-4)GlcNAc(b1-3)GalNAc</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>-0.50647788</v>
+        <v>-0.2176561095</v>
       </c>
       <c r="C17" t="n">
-        <v>2.074553668654954</v>
+        <v>1.908591060345055</v>
       </c>
       <c r="D17" t="n">
-        <v>2.074553668654954</v>
+        <v>1.908591060345055</v>
       </c>
       <c r="E17" t="n">
-        <v>2.074553668654954</v>
+        <v>1.908591060345055</v>
       </c>
       <c r="F17" t="n">
-        <v>6.404429833333334</v>
+        <v>2.380046260000001</v>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>lipid/free</t>
+          <t>O</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="inlineStr">
         <is>
-          <t>Fuc(a1-2)[Gal(a1-3)]Gal(b1-4)GlcNAc(b1-3)GalNAc</t>
+          <t>Fuc(a1-2)[Gal(a1-3)]Gal(b1-4)GlcNAc(b1-3)[Fuc(a1-2)[Gal(a1-3)]Gal(b1-4)GlcNAc(b1-6)]GalNAc</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>-0.2176561095</v>
+        <v>-0.1986236446666667</v>
       </c>
       <c r="C18" t="n">
-        <v>1.908591060345055</v>
+        <v>1.862730805568281</v>
       </c>
       <c r="D18" t="n">
-        <v>1.908591060345055</v>
+        <v>2.010569994016131</v>
       </c>
       <c r="E18" t="n">
-        <v>1.908591060345055</v>
+        <v>3.725461611136561</v>
       </c>
       <c r="F18" t="n">
-        <v>2.380046260000001</v>
+        <v>17.30735466666665</v>
       </c>
       <c r="G18" t="inlineStr">
         <is>
@@ -932,23 +932,23 @@
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
         <is>
-          <t>Fuc(a1-2)[Gal(a1-3)]Gal(b1-4)GlcNAc(b1-3)[Fuc(a1-2)[Gal(a1-3)]Gal(b1-4)GlcNAc(b1-6)]GalNAc</t>
+          <t>Fuc(a1-2)[GalNAc(a1-3)]Gal(b1-3)GalNAc</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>-0.1986236446666667</v>
+        <v>-0.379359657</v>
       </c>
       <c r="C19" t="n">
-        <v>1.862730805568281</v>
+        <v>1.770798686109169</v>
       </c>
       <c r="D19" t="n">
-        <v>2.010569994016131</v>
+        <v>1.770798686109169</v>
       </c>
       <c r="E19" t="n">
-        <v>3.725461611136561</v>
+        <v>1.770798686109169</v>
       </c>
       <c r="F19" t="n">
-        <v>17.30735466666665</v>
+        <v>1.784182919999997</v>
       </c>
       <c r="G19" t="inlineStr">
         <is>
@@ -959,77 +959,77 @@
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
         <is>
-          <t>Fuc(a1-2)[GalNAc(a1-3)]Gal(b1-3)GalNAc</t>
+          <t>Fuc(a1-2)[GalNAc(a1-3)]Gal(b1-3)[Fuc(a1-4)]GlcNAc(b1-3)Gal(b1-4)Glc</t>
         </is>
       </c>
       <c r="B20" t="n">
-        <v>-0.379359657</v>
+        <v>-0.469656316</v>
       </c>
       <c r="C20" t="n">
-        <v>1.770798686109169</v>
+        <v>1.669857997159468</v>
       </c>
       <c r="D20" t="n">
-        <v>1.770798686109169</v>
+        <v>1.677303481074935</v>
       </c>
       <c r="E20" t="n">
-        <v>1.770798686109169</v>
+        <v>3.339715994318936</v>
       </c>
       <c r="F20" t="n">
-        <v>1.784182919999997</v>
+        <v>4.275120000000004</v>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>O</t>
+          <t>lipid/free</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="inlineStr">
         <is>
-          <t>Fuc(a1-2)[GalNAc(a1-3)]Gal(b1-3)[Fuc(a1-4)]GlcNAc(b1-3)Gal(b1-4)Glc</t>
+          <t>Fuc(a1-3)[Gal(b1-4)]GlcNAc(b1-2)Man(a1-3)[Fuc(a1-3)[Gal(b1-4)]GlcNAc(b1-2)Man(a1-6)]Man(b1-4)GlcNAc(b1-4)GlcNAc</t>
         </is>
       </c>
       <c r="B21" t="n">
-        <v>-0.469656316</v>
+        <v>0.350788226</v>
       </c>
       <c r="C21" t="n">
-        <v>1.669857997159468</v>
+        <v>1.581923325076553</v>
       </c>
       <c r="D21" t="n">
-        <v>1.677303481074935</v>
+        <v>1.600011989804885</v>
       </c>
       <c r="E21" t="n">
-        <v>3.339715994318936</v>
+        <v>3.163846650153106</v>
       </c>
       <c r="F21" t="n">
-        <v>4.275120000000004</v>
+        <v>43.07604834858486</v>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>lipid/free</t>
+          <t>N</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="inlineStr">
         <is>
-          <t>Fuc(a1-3)[Gal(b1-4)]GlcNAc(b1-2)Man(a1-3)[Fuc(a1-3)[Gal(b1-4)]GlcNAc(b1-2)Man(a1-6)]Man(b1-4)GlcNAc(b1-4)GlcNAc</t>
+          <t>Fuc(a1-3)[Gal(b1-4)]GlcNAc(b1-2)Man(a1-3)[Fuc(a1-3)[Gal(b1-4)]GlcNAc(b1-2)Man(a1-6)]Man(b1-4)GlcNAc(b1-4)[Fuc(a1-6)]GlcNAc</t>
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0.350788226</v>
+        <v>0.04139189324999999</v>
       </c>
       <c r="C22" t="n">
-        <v>1.581923325076553</v>
+        <v>1.724610006213022</v>
       </c>
       <c r="D22" t="n">
-        <v>1.600011989804885</v>
+        <v>1.908119887503346</v>
       </c>
       <c r="E22" t="n">
-        <v>3.163846650153106</v>
+        <v>5.173830018639067</v>
       </c>
       <c r="F22" t="n">
-        <v>43.07604834858486</v>
+        <v>26.46877407185162</v>
       </c>
       <c r="G22" t="inlineStr">
         <is>
@@ -1040,23 +1040,23 @@
     <row r="23">
       <c r="A23" s="1" t="inlineStr">
         <is>
-          <t>Fuc(a1-3)[Gal(b1-4)]GlcNAc(b1-2)Man(a1-3)[Fuc(a1-3)[Gal(b1-4)]GlcNAc(b1-2)Man(a1-6)]Man(b1-4)GlcNAc(b1-4)[Fuc(a1-6)]GlcNAc</t>
+          <t>Fuc(a1-3)[Gal(b1-4)]GlcNAc(b1-2)Man(a1-3)[Gal(b1-4)GlcNAc(b1-2)Man(a1-6)]Man(b1-4)GlcNAc(b1-4)GlcNAc</t>
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0.04139189324999999</v>
+        <v>1.186352685</v>
       </c>
       <c r="C23" t="n">
-        <v>1.724610006213022</v>
+        <v>1.952742836112575</v>
       </c>
       <c r="D23" t="n">
-        <v>1.908119887503346</v>
+        <v>1.952742836112575</v>
       </c>
       <c r="E23" t="n">
-        <v>5.173830018639067</v>
+        <v>1.952742836112575</v>
       </c>
       <c r="F23" t="n">
-        <v>26.46877407185162</v>
+        <v>21.47907028000001</v>
       </c>
       <c r="G23" t="inlineStr">
         <is>
@@ -1067,23 +1067,23 @@
     <row r="24">
       <c r="A24" s="1" t="inlineStr">
         <is>
-          <t>Fuc(a1-3)[Gal(b1-4)]GlcNAc(b1-2)Man(a1-3)[Gal(b1-4)GlcNAc(b1-2)Man(a1-6)]Man(b1-4)GlcNAc(b1-4)GlcNAc</t>
+          <t>Fuc(a1-3)[Gal(b1-4)]GlcNAc(b1-2)Man(a1-3)[GlcNAc(b1-2)Man(a1-6)]Man(b1-4)GlcNAc(b1-4)GlcNAc</t>
         </is>
       </c>
       <c r="B24" t="n">
-        <v>1.186352685</v>
+        <v>1.549582994</v>
       </c>
       <c r="C24" t="n">
-        <v>1.952742836112575</v>
+        <v>1.881733706693037</v>
       </c>
       <c r="D24" t="n">
-        <v>1.952742836112575</v>
+        <v>1.881733706693037</v>
       </c>
       <c r="E24" t="n">
-        <v>1.952742836112575</v>
+        <v>1.881733706693037</v>
       </c>
       <c r="F24" t="n">
-        <v>21.47907028000001</v>
+        <v>21.15143896000001</v>
       </c>
       <c r="G24" t="inlineStr">
         <is>
@@ -1094,50 +1094,50 @@
     <row r="25">
       <c r="A25" s="1" t="inlineStr">
         <is>
-          <t>Fuc(a1-3)[Gal(b1-4)]GlcNAc(b1-2)Man(a1-3)[GlcNAc(b1-2)Man(a1-6)]Man(b1-4)GlcNAc(b1-4)GlcNAc</t>
+          <t>Fuc(a1-3)[Gal(b1-4)]GlcNAc(b1-3)[Fuc(a1-3)[Gal(b1-4)]GlcNAc(b1-6)]Gal(b1-4)Glc</t>
         </is>
       </c>
       <c r="B25" t="n">
-        <v>1.549582994</v>
+        <v>0.949682705</v>
       </c>
       <c r="C25" t="n">
-        <v>1.881733706693037</v>
+        <v>1.824909602345942</v>
       </c>
       <c r="D25" t="n">
-        <v>1.881733706693037</v>
+        <v>1.863657215672761</v>
       </c>
       <c r="E25" t="n">
-        <v>1.881733706693037</v>
+        <v>3.649819204691884</v>
       </c>
       <c r="F25" t="n">
-        <v>21.15143896000001</v>
+        <v>17.92982791136256</v>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>N</t>
+          <t>lipid/free</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="inlineStr">
         <is>
-          <t>Fuc(a1-3)[Gal(b1-4)]GlcNAc(b1-3)[Fuc(a1-3)[Gal(b1-4)]GlcNAc(b1-6)]Gal(b1-4)Glc</t>
+          <t>Fuc(a1-3)[Gal(b1-4)]GlcNAc(b1-3)[GlcNAc(b1-6)]Gal(b1-4)Glc</t>
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0.949682705</v>
+        <v>1.495895821</v>
       </c>
       <c r="C26" t="n">
-        <v>1.824909602345942</v>
+        <v>1.963911736532091</v>
       </c>
       <c r="D26" t="n">
-        <v>1.863657215672761</v>
+        <v>1.963911736532091</v>
       </c>
       <c r="E26" t="n">
-        <v>3.649819204691884</v>
+        <v>1.963911736532091</v>
       </c>
       <c r="F26" t="n">
-        <v>17.92982791136256</v>
+        <v>11.90423596</v>
       </c>
       <c r="G26" t="inlineStr">
         <is>
@@ -1148,77 +1148,77 @@
     <row r="27">
       <c r="A27" s="1" t="inlineStr">
         <is>
-          <t>Fuc(a1-3)[Gal(b1-4)]GlcNAc(b1-3)[GlcNAc(b1-6)]Gal(b1-4)Glc</t>
+          <t>Fuc(a1-3)[GalNAc(b1-4)]GlcNAc(b1-2)Man(a1-3)[Fuc(a1-3)[GalNAc(b1-4)]GlcNAc(b1-2)Man(a1-6)]Man(b1-4)GlcNAc(b1-4)GlcNAc</t>
         </is>
       </c>
       <c r="B27" t="n">
-        <v>1.495895821</v>
+        <v>0.821133242</v>
       </c>
       <c r="C27" t="n">
-        <v>1.963911736532091</v>
+        <v>1.647726393874084</v>
       </c>
       <c r="D27" t="n">
-        <v>1.963911736532091</v>
+        <v>1.83051119502839</v>
       </c>
       <c r="E27" t="n">
-        <v>1.963911736532091</v>
+        <v>3.295452787748169</v>
       </c>
       <c r="F27" t="n">
-        <v>11.90423596</v>
+        <v>29.07966613327999</v>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>lipid/free</t>
+          <t>N</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="inlineStr">
         <is>
-          <t>Fuc(a1-3)[GalNAc(b1-4)]GlcNAc(b1-2)Man(a1-3)[Fuc(a1-3)[GalNAc(b1-4)]GlcNAc(b1-2)Man(a1-6)]Man(b1-4)GlcNAc(b1-4)GlcNAc</t>
+          <t>Gal(b1-3)[Fuc(a1-4)]GlcNAc</t>
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0.821133242</v>
+        <v>0.8099813499999999</v>
       </c>
       <c r="C28" t="n">
-        <v>1.647726393874084</v>
+        <v>2.132314839689439</v>
       </c>
       <c r="D28" t="n">
-        <v>1.83051119502839</v>
+        <v>2.132314839689439</v>
       </c>
       <c r="E28" t="n">
-        <v>3.295452787748169</v>
+        <v>2.132314839689439</v>
       </c>
       <c r="F28" t="n">
-        <v>29.07966613327999</v>
+        <v>1.032800363369671</v>
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>N</t>
+          <t>O</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="1" t="inlineStr">
         <is>
-          <t>Gal(b1-3)[Fuc(a1-4)]GlcNAc</t>
+          <t>Gal(b1-3)[Fuc(a1-4)]GlcNAc(b1-3)Gal</t>
         </is>
       </c>
       <c r="B29" t="n">
-        <v>0.8099813499999999</v>
+        <v>1.544706267</v>
       </c>
       <c r="C29" t="n">
-        <v>2.132314839689439</v>
+        <v>2.057713565502089</v>
       </c>
       <c r="D29" t="n">
-        <v>2.132314839689439</v>
+        <v>2.057713565502089</v>
       </c>
       <c r="E29" t="n">
-        <v>2.132314839689439</v>
+        <v>2.057713565502089</v>
       </c>
       <c r="F29" t="n">
-        <v>1.032800363369671</v>
+        <v>2.145042860000003</v>
       </c>
       <c r="G29" t="inlineStr">
         <is>
@@ -1229,77 +1229,77 @@
     <row r="30">
       <c r="A30" s="1" t="inlineStr">
         <is>
-          <t>Gal(b1-3)[Fuc(a1-4)]GlcNAc(b1-3)Gal</t>
+          <t>Gal(b1-3)[Fuc(a1-4)]GlcNAc(b1-3)Gal(b1-4)Glc</t>
         </is>
       </c>
       <c r="B30" t="n">
-        <v>1.544706267</v>
+        <v>0.167828653</v>
       </c>
       <c r="C30" t="n">
-        <v>2.057713565502089</v>
+        <v>2.030365137387976</v>
       </c>
       <c r="D30" t="n">
-        <v>2.057713565502089</v>
+        <v>2.030365137387976</v>
       </c>
       <c r="E30" t="n">
-        <v>2.057713565502089</v>
+        <v>2.030365137387976</v>
       </c>
       <c r="F30" t="n">
-        <v>2.145042860000003</v>
+        <v>6.011923522352238</v>
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>O</t>
+          <t>lipid/free</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="1" t="inlineStr">
         <is>
-          <t>Gal(b1-3)[Fuc(a1-4)]GlcNAc(b1-3)Gal(b1-4)Glc</t>
+          <t>Gal(b1-4)GlcNAc(b1-2)Man(a1-3)[Fuc(a1-3)[Gal(b1-4)]GlcNAc(b1-2)Man(a1-6)]Man(b1-4)GlcNAc(b1-4)GlcNAc</t>
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0.167828653</v>
+        <v>1.08805908</v>
       </c>
       <c r="C31" t="n">
-        <v>2.030365137387976</v>
+        <v>1.56490231353927</v>
       </c>
       <c r="D31" t="n">
-        <v>2.030365137387976</v>
+        <v>1.56490231353927</v>
       </c>
       <c r="E31" t="n">
-        <v>2.030365137387976</v>
+        <v>1.56490231353927</v>
       </c>
       <c r="F31" t="n">
-        <v>6.011923522352238</v>
+        <v>41.33179165000001</v>
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>lipid/free</t>
+          <t>N</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="1" t="inlineStr">
         <is>
-          <t>Gal(b1-4)GlcNAc(b1-2)Man(a1-3)[Fuc(a1-3)[Gal(b1-4)]GlcNAc(b1-2)Man(a1-6)]Man(b1-4)GlcNAc(b1-4)GlcNAc</t>
+          <t>Gal(b1-4)GlcNAc(b1-2)Man(a1-3)[Gal(b1-4)GlcNAc(b1-2)Man(a1-6)]Man(b1-4)GlcNAc(b1-4)[Fuc(a1-3)][Fuc(a1-6)]GlcNAc</t>
         </is>
       </c>
       <c r="B32" t="n">
-        <v>1.08805908</v>
+        <v>0.426619067</v>
       </c>
       <c r="C32" t="n">
-        <v>1.56490231353927</v>
+        <v>1.664693174984509</v>
       </c>
       <c r="D32" t="n">
-        <v>1.56490231353927</v>
+        <v>1.762360104945837</v>
       </c>
       <c r="E32" t="n">
-        <v>1.56490231353927</v>
+        <v>3.329386349969019</v>
       </c>
       <c r="F32" t="n">
-        <v>41.33179165000001</v>
+        <v>21.48710625</v>
       </c>
       <c r="G32" t="inlineStr">
         <is>
@@ -1310,23 +1310,23 @@
     <row r="33">
       <c r="A33" s="1" t="inlineStr">
         <is>
-          <t>Gal(b1-4)GlcNAc(b1-2)Man(a1-3)[Gal(b1-4)GlcNAc(b1-2)Man(a1-6)]Man(b1-4)GlcNAc(b1-4)[Fuc(a1-3)][Fuc(a1-6)]GlcNAc</t>
+          <t>Gal(b1-4)GlcNAc(b1-2)Man(a1-3)[Gal(b1-4)GlcNAc(b1-2)Man(a1-6)]Man(b1-4)GlcNAc(b1-4)[Fuc(a1-6)]GlcNAc</t>
         </is>
       </c>
       <c r="B33" t="n">
-        <v>0.426619067</v>
+        <v>0.31258591275</v>
       </c>
       <c r="C33" t="n">
-        <v>1.179538925091998</v>
+        <v>1.656675648076949</v>
       </c>
       <c r="D33" t="n">
-        <v>1.309902859389025</v>
+        <v>1.656675648076949</v>
       </c>
       <c r="E33" t="n">
-        <v>2.359077850183995</v>
+        <v>1.656675648076949</v>
       </c>
       <c r="F33" t="n">
-        <v>9.734501999999996</v>
+        <v>24.56787435</v>
       </c>
       <c r="G33" t="inlineStr">
         <is>
@@ -1337,23 +1337,23 @@
     <row r="34">
       <c r="A34" s="1" t="inlineStr">
         <is>
-          <t>Gal(b1-4)GlcNAc(b1-2)Man(a1-3)[Gal(b1-4)GlcNAc(b1-2)Man(a1-6)]Man(b1-4)GlcNAc(b1-4)[Fuc(a1-6)]GlcNAc</t>
+          <t>Gal(b1-4)GlcNAc(b1-2)Man(a1-3)[GlcNAc(b1-2)Man(a1-6)]Man(b1-4)GlcNAc(b1-4)[Fuc(a1-6)]GlcNAc</t>
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0.31258591275</v>
+        <v>0.513143012</v>
       </c>
       <c r="C34" t="n">
-        <v>1.656675648076949</v>
+        <v>2.032631731546139</v>
       </c>
       <c r="D34" t="n">
-        <v>1.656675648076949</v>
+        <v>2.032631731546139</v>
       </c>
       <c r="E34" t="n">
-        <v>1.656675648076949</v>
+        <v>2.032631731546139</v>
       </c>
       <c r="F34" t="n">
-        <v>24.56787435</v>
+        <v>16.30643722294437</v>
       </c>
       <c r="G34" t="inlineStr">
         <is>
@@ -1364,23 +1364,23 @@
     <row r="35">
       <c r="A35" s="1" t="inlineStr">
         <is>
-          <t>Gal(b1-4)GlcNAc(b1-2)Man(a1-3)[GlcNAc(b1-2)Man(a1-6)]Man(b1-4)GlcNAc(b1-4)[Fuc(a1-6)]GlcNAc</t>
+          <t>GlcNAc(b1-2)Man(a1-3)Man(b1-4)GlcNAc(b1-4)[Fuc(a1-6)]GlcNAc</t>
         </is>
       </c>
       <c r="B35" t="n">
-        <v>0.513143012</v>
+        <v>1.214810581</v>
       </c>
       <c r="C35" t="n">
-        <v>2.032631731546139</v>
+        <v>2.386004558665317</v>
       </c>
       <c r="D35" t="n">
-        <v>2.032631731546139</v>
+        <v>2.386004558665317</v>
       </c>
       <c r="E35" t="n">
-        <v>2.032631731546139</v>
+        <v>2.386004558665317</v>
       </c>
       <c r="F35" t="n">
-        <v>16.30643722294437</v>
+        <v>8.772130900000002</v>
       </c>
       <c r="G35" t="inlineStr">
         <is>
@@ -1391,131 +1391,131 @@
     <row r="36">
       <c r="A36" s="1" t="inlineStr">
         <is>
-          <t>GlcNAc(b1-2)Man(a1-3)Man(b1-4)GlcNAc(b1-4)[Fuc(a1-6)]GlcNAc</t>
+          <t>GlcNAc(b1-2)Man(a1-3)[GlcNAc(b1-2)Man(a1-6)]Man(b1-4)GlcNAc(b1-4)[Fuc(a1-3)]GlcNAc</t>
         </is>
       </c>
       <c r="B36" t="n">
-        <v>1.214810581</v>
+        <v>-0.6648078039999999</v>
       </c>
       <c r="C36" t="n">
-        <v>2.386004558665317</v>
+        <v>1.568277264894773</v>
       </c>
       <c r="D36" t="n">
-        <v>2.386004558665317</v>
+        <v>1.568277264894773</v>
       </c>
       <c r="E36" t="n">
-        <v>2.386004558665317</v>
+        <v>1.568277264894773</v>
       </c>
       <c r="F36" t="n">
-        <v>8.772130900000002</v>
+        <v>8.106840817415074</v>
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>N</t>
+          <t>O</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="1" t="inlineStr">
         <is>
-          <t>GlcNAc(b1-2)Man(a1-3)[GlcNAc(b1-2)Man(a1-6)]Man(b1-4)GlcNAc(b1-4)[Fuc(a1-3)]GlcNAc</t>
+          <t>GlcNAc(b1-2)Man(a1-3)[GlcNAc(b1-2)Man(a1-6)]Man(b1-4)GlcNAc(b1-4)[Fuc(a1-6)]GlcNAc</t>
         </is>
       </c>
       <c r="B37" t="n">
-        <v>-0.6648078039999999</v>
+        <v>0.1435626945</v>
       </c>
       <c r="C37" t="n">
-        <v>1.936917597687596</v>
+        <v>2.196111397777991</v>
       </c>
       <c r="D37" t="n">
-        <v>1.936917597687596</v>
+        <v>2.196111397777991</v>
       </c>
       <c r="E37" t="n">
-        <v>1.936917597687596</v>
+        <v>2.196111397777991</v>
       </c>
       <c r="F37" t="n">
-        <v>6.31450295029503</v>
+        <v>17.01846274261463</v>
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>O</t>
+          <t>N</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="1" t="inlineStr">
         <is>
-          <t>GlcNAc(b1-2)Man(a1-3)[GlcNAc(b1-2)Man(a1-6)]Man(b1-4)GlcNAc(b1-4)[Fuc(a1-6)]GlcNAc</t>
+          <t>GlcNAc(b1-2)Man(a1-3)[GlcNAc(b1-2)Man(a1-6)][Xyl(b1-2)]Man(b1-4)GlcNAc(b1-4)[Fuc(a1-3)]GlcNAc</t>
         </is>
       </c>
       <c r="B38" t="n">
-        <v>0.1435626945</v>
+        <v>-0.756923457</v>
       </c>
       <c r="C38" t="n">
-        <v>2.196111397777991</v>
+        <v>1.709611781121884</v>
       </c>
       <c r="D38" t="n">
-        <v>2.196111397777991</v>
+        <v>1.709611781121884</v>
       </c>
       <c r="E38" t="n">
-        <v>2.196111397777991</v>
+        <v>1.709611781121884</v>
       </c>
       <c r="F38" t="n">
-        <v>17.01846274261463</v>
+        <v>12.08851386666667</v>
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t>N</t>
+          <t>O</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="1" t="inlineStr">
         <is>
-          <t>GlcNAc(b1-2)Man(a1-3)[GlcNAc(b1-2)Man(a1-6)][Xyl(b1-2)]Man(b1-4)GlcNAc(b1-4)[Fuc(a1-3)]GlcNAc</t>
+          <t>GlcNAc(b1-2)Man(a1-3)[GlcNAc(b1-2)Man(a1-6)][Xyl(b1-2)]Man(b1-4)GlcNAc(b1-4)[Fuc(a1-6)]GlcNAc</t>
         </is>
       </c>
       <c r="B39" t="n">
-        <v>-0.756923457</v>
+        <v>0.785268317</v>
       </c>
       <c r="C39" t="n">
-        <v>1.779489641947969</v>
+        <v>2.227839278214138</v>
       </c>
       <c r="D39" t="n">
-        <v>1.779489641947969</v>
+        <v>2.227839278214138</v>
       </c>
       <c r="E39" t="n">
-        <v>1.779489641947969</v>
+        <v>2.227839278214138</v>
       </c>
       <c r="F39" t="n">
-        <v>6.284586866666662</v>
+        <v>19.50205842806503</v>
       </c>
       <c r="G39" t="inlineStr">
         <is>
-          <t>O</t>
+          <t>N</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="1" t="inlineStr">
         <is>
-          <t>GlcNAc(b1-2)Man(a1-3)[GlcNAc(b1-2)Man(a1-6)][Xyl(b1-2)]Man(b1-4)GlcNAc(b1-4)[Fuc(a1-6)]GlcNAc</t>
+          <t>GlcNAc(b1-2)Man(a1-3)[Man(a1-3)[Man(a1-6)]Man(a1-6)]Man(b1-4)GlcNAc(b1-4)[Fuc(a1-6)]GlcNAc</t>
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0.785268317</v>
+        <v>1.179782491</v>
       </c>
       <c r="C40" t="n">
-        <v>1.920088195817556</v>
+        <v>2.021220999601209</v>
       </c>
       <c r="D40" t="n">
-        <v>1.920088195817556</v>
+        <v>2.021220999601209</v>
       </c>
       <c r="E40" t="n">
-        <v>1.920088195817556</v>
+        <v>2.021220999601209</v>
       </c>
       <c r="F40" t="n">
-        <v>8.030536053605365</v>
+        <v>29.55949555044496</v>
       </c>
       <c r="G40" t="inlineStr">
         <is>
@@ -1526,77 +1526,77 @@
     <row r="41">
       <c r="A41" s="1" t="inlineStr">
         <is>
-          <t>GlcNAc(b1-2)Man(a1-3)[Man(a1-3)[Man(a1-6)]Man(a1-6)]Man(b1-4)GlcNAc(b1-4)[Fuc(a1-6)]GlcNAc</t>
+          <t>GlcNAc(b1-3)Fuc</t>
         </is>
       </c>
       <c r="B41" t="n">
-        <v>1.179782491</v>
+        <v>1.782290507333333</v>
       </c>
       <c r="C41" t="n">
-        <v>2.021220999601209</v>
+        <v>1.986463989616981</v>
       </c>
       <c r="D41" t="n">
-        <v>2.021220999601209</v>
+        <v>1.986463989616981</v>
       </c>
       <c r="E41" t="n">
-        <v>2.021220999601209</v>
+        <v>1.986463989616981</v>
       </c>
       <c r="F41" t="n">
-        <v>29.55949555044496</v>
+        <v>0.2711967803219664</v>
       </c>
       <c r="G41" t="inlineStr">
         <is>
-          <t>N</t>
+          <t>O</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="1" t="inlineStr">
         <is>
-          <t>GlcNAc(b1-3)Fuc</t>
+          <t>GlcNAc(b1-4)[Fuc(a1-6)]GlcNAc</t>
         </is>
       </c>
       <c r="B42" t="n">
-        <v>1.782290507333333</v>
+        <v>2.282181804</v>
       </c>
       <c r="C42" t="n">
-        <v>0</v>
+        <v>2.324045455484034</v>
       </c>
       <c r="D42" t="n">
-        <v>0</v>
+        <v>2.324045455484034</v>
       </c>
       <c r="E42" t="n">
-        <v>0</v>
+        <v>2.324045455484034</v>
       </c>
       <c r="F42" t="n">
-        <v>0</v>
+        <v>2.108746819999999</v>
       </c>
       <c r="G42" t="inlineStr">
         <is>
-          <t>O</t>
+          <t>N</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="1" t="inlineStr">
         <is>
-          <t>GlcNAc(b1-4)[Fuc(a1-6)]GlcNAc</t>
+          <t>Man(a1-3)[Man(a1-6)]Man(b1-4)GlcNAc(b1-4)[Fuc(a1-3)][Fuc(a1-6)]GlcNAc</t>
         </is>
       </c>
       <c r="B43" t="n">
-        <v>2.282181804</v>
+        <v>0.891766033</v>
       </c>
       <c r="C43" t="n">
-        <v>2.324045455484034</v>
+        <v>1.956884726075177</v>
       </c>
       <c r="D43" t="n">
-        <v>2.324045455484034</v>
+        <v>2.079379282960139</v>
       </c>
       <c r="E43" t="n">
-        <v>2.324045455484034</v>
+        <v>3.913769452150354</v>
       </c>
       <c r="F43" t="n">
-        <v>2.108746819999999</v>
+        <v>12.52359855485548</v>
       </c>
       <c r="G43" t="inlineStr">
         <is>
@@ -1607,23 +1607,23 @@
     <row r="44">
       <c r="A44" s="1" t="inlineStr">
         <is>
-          <t>Man(a1-3)[Man(a1-6)]Man(b1-4)GlcNAc(b1-4)[Fuc(a1-3)][Fuc(a1-6)]GlcNAc</t>
+          <t>Man(b1-4)GlcNAc(b1-4)[Fuc(a1-6)]GlcNAc</t>
         </is>
       </c>
       <c r="B44" t="n">
-        <v>0.891766033</v>
+        <v>2.871861402</v>
       </c>
       <c r="C44" t="n">
-        <v>1.880446338644047</v>
+        <v>2.091318093705922</v>
       </c>
       <c r="D44" t="n">
-        <v>2.079379282960139</v>
+        <v>2.091318093705922</v>
       </c>
       <c r="E44" t="n">
-        <v>3.760892677288093</v>
+        <v>2.091318093705922</v>
       </c>
       <c r="F44" t="n">
-        <v>8.39641511151115</v>
+        <v>5.061231499999998</v>
       </c>
       <c r="G44" t="inlineStr">
         <is>
@@ -1634,104 +1634,104 @@
     <row r="45">
       <c r="A45" s="1" t="inlineStr">
         <is>
-          <t>Man(b1-4)GlcNAc(b1-4)[Fuc(a1-6)]GlcNAc</t>
+          <t>Neu5Ac(a2-3)Gal(b1-3)[Fuc(a1-4)]GlcNAc</t>
         </is>
       </c>
       <c r="B45" t="n">
-        <v>2.871861402</v>
+        <v>0.7640217545000001</v>
       </c>
       <c r="C45" t="n">
-        <v>2.091318093705922</v>
+        <v>1.993078126869602</v>
       </c>
       <c r="D45" t="n">
-        <v>2.091318093705922</v>
+        <v>1.993078126869602</v>
       </c>
       <c r="E45" t="n">
-        <v>2.091318093705922</v>
+        <v>1.993078126869602</v>
       </c>
       <c r="F45" t="n">
-        <v>5.061231499999998</v>
+        <v>3.604707245724574</v>
       </c>
       <c r="G45" t="inlineStr">
         <is>
-          <t>N</t>
+          <t>O</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="1" t="inlineStr">
         <is>
-          <t>Neu5Ac(a2-3)Gal(b1-3)[Fuc(a1-4)]GlcNAc</t>
+          <t>Neu5Ac(a2-3)Gal(b1-4)GlcNAc(b1-2)Man(a1-3)[Neu5Ac(a2-3)Gal(b1-4)GlcNAc(b1-2)Man(a1-6)]Man(b1-4)GlcNAc(b1-4)[Fuc(a1-6)]GlcNAc</t>
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0.7640217545000001</v>
+        <v>0.9171362446666667</v>
       </c>
       <c r="C46" t="n">
-        <v>1.237559254482525</v>
+        <v>1.680493591656133</v>
       </c>
       <c r="D46" t="n">
-        <v>1.237559254482525</v>
+        <v>1.680493591656133</v>
       </c>
       <c r="E46" t="n">
-        <v>1.237559254482525</v>
+        <v>1.680493591656133</v>
       </c>
       <c r="F46" t="n">
-        <v>1.303767476747673</v>
+        <v>14.12716278372164</v>
       </c>
       <c r="G46" t="inlineStr">
         <is>
-          <t>O</t>
+          <t>N</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="1" t="inlineStr">
         <is>
-          <t>Neu5Ac(a2-3)Gal(b1-4)GlcNAc(b1-2)Man(a1-3)[Neu5Ac(a2-3)Gal(b1-4)GlcNAc(b1-2)Man(a1-6)]Man(b1-4)GlcNAc(b1-4)[Fuc(a1-6)]GlcNAc</t>
+          <t>Neu5Ac(a2-3)Gal(b1-4)[Fuc(a1-3)]GlcNAc</t>
         </is>
       </c>
       <c r="B47" t="n">
-        <v>0.9171362446666667</v>
+        <v>0.6823899394999999</v>
       </c>
       <c r="C47" t="n">
-        <v>1.680493591656133</v>
+        <v>1.918932847975427</v>
       </c>
       <c r="D47" t="n">
-        <v>1.680493591656133</v>
+        <v>1.918932847975427</v>
       </c>
       <c r="E47" t="n">
-        <v>1.680493591656133</v>
+        <v>1.918932847975427</v>
       </c>
       <c r="F47" t="n">
-        <v>14.12716278372164</v>
+        <v>1.415934280000001</v>
       </c>
       <c r="G47" t="inlineStr">
         <is>
-          <t>N</t>
+          <t>O</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="1" t="inlineStr">
         <is>
-          <t>Neu5Ac(a2-3)Gal(b1-4)[Fuc(a1-3)]GlcNAc</t>
+          <t>Neu5Ac(a2-3)Gal(b1-4)[Fuc(a1-3)]GlcNAc(b1-2)Man</t>
         </is>
       </c>
       <c r="B48" t="n">
-        <v>0.6823899394999999</v>
+        <v>0.3399763656666667</v>
       </c>
       <c r="C48" t="n">
-        <v>1.918932847975427</v>
+        <v>1.926965893336286</v>
       </c>
       <c r="D48" t="n">
-        <v>1.918932847975427</v>
+        <v>1.926965893336286</v>
       </c>
       <c r="E48" t="n">
-        <v>1.918932847975427</v>
+        <v>1.926965893336286</v>
       </c>
       <c r="F48" t="n">
-        <v>1.415934280000001</v>
+        <v>3.091470333333334</v>
       </c>
       <c r="G48" t="inlineStr">
         <is>
@@ -1742,23 +1742,23 @@
     <row r="49">
       <c r="A49" s="1" t="inlineStr">
         <is>
-          <t>Neu5Ac(a2-3)Gal(b1-4)[Fuc(a1-3)]GlcNAc(b1-2)Man</t>
+          <t>Neu5Ac(a2-3)Gal(b1-4)[Fuc(a1-3)]GlcNAc(b1-6)[Neu5Ac(a2-3)Gal(b1-3)]GalNAc</t>
         </is>
       </c>
       <c r="B49" t="n">
-        <v>0.3399763656666667</v>
+        <v>-0.17504563425</v>
       </c>
       <c r="C49" t="n">
-        <v>1.206614427171711</v>
+        <v>1.891745430477016</v>
       </c>
       <c r="D49" t="n">
-        <v>1.206614427171711</v>
+        <v>1.891745430477016</v>
       </c>
       <c r="E49" t="n">
-        <v>1.206614427171711</v>
+        <v>1.891745430477016</v>
       </c>
       <c r="F49" t="n">
-        <v>1.993896933333333</v>
+        <v>11.15615455545555</v>
       </c>
       <c r="G49" t="inlineStr">
         <is>
@@ -1769,106 +1769,79 @@
     <row r="50">
       <c r="A50" s="1" t="inlineStr">
         <is>
-          <t>Neu5Ac(a2-3)Gal(b1-4)[Fuc(a1-3)]GlcNAc(b1-6)[Neu5Ac(a2-3)Gal(b1-3)]GalNAc</t>
+          <t>Neu5Ac(a2-6)Gal(b1-4)GlcNAc(b1-2)Man(a1-3)[Neu5Ac(a2-6)Gal(b1-4)GlcNAc(b1-2)Man(a1-6)]Man(b1-4)GlcNAc(b1-4)[Fuc(a1-6)]GlcNAc</t>
         </is>
       </c>
       <c r="B50" t="n">
-        <v>-0.17504563425</v>
+        <v>1.428541118333333</v>
       </c>
       <c r="C50" t="n">
-        <v>1.891745430477016</v>
+        <v>1.824471573310253</v>
       </c>
       <c r="D50" t="n">
-        <v>1.891745430477016</v>
+        <v>1.824471573310253</v>
       </c>
       <c r="E50" t="n">
-        <v>1.891745430477016</v>
+        <v>1.824471573310253</v>
       </c>
       <c r="F50" t="n">
-        <v>11.15615455545555</v>
+        <v>30.477533775</v>
       </c>
       <c r="G50" t="inlineStr">
         <is>
-          <t>O</t>
+          <t>N</t>
         </is>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="1" t="inlineStr">
         <is>
-          <t>Neu5Ac(a2-6)Gal(b1-4)GlcNAc(b1-2)Man(a1-3)[Neu5Ac(a2-6)Gal(b1-4)GlcNAc(b1-2)Man(a1-6)]Man(b1-4)GlcNAc(b1-4)[Fuc(a1-6)]GlcNAc</t>
+          <t>Neu5Gc(a2-3)Gal(b1-3)[Fuc(a1-4)]GlcNAc</t>
         </is>
       </c>
       <c r="B51" t="n">
-        <v>1.428541118333333</v>
+        <v>0.3721878165</v>
       </c>
       <c r="C51" t="n">
-        <v>1.824471573310253</v>
+        <v>1.882777586818324</v>
       </c>
       <c r="D51" t="n">
-        <v>1.824471573310253</v>
+        <v>1.882777586818324</v>
       </c>
       <c r="E51" t="n">
-        <v>1.824471573310253</v>
+        <v>1.882777586818324</v>
       </c>
       <c r="F51" t="n">
-        <v>30.477533775</v>
+        <v>2.181886268626866</v>
       </c>
       <c r="G51" t="inlineStr">
         <is>
-          <t>N</t>
+          <t>O</t>
         </is>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="1" t="inlineStr">
         <is>
-          <t>Neu5Gc(a2-3)Gal(b1-3)[Fuc(a1-4)]GlcNAc</t>
+          <t>Neu5Gc(a2-3)Gal(b1-4)[Fuc(a1-3)]GlcNAc</t>
         </is>
       </c>
       <c r="B52" t="n">
-        <v>0.3721878165</v>
+        <v>0.41204455675</v>
       </c>
       <c r="C52" t="n">
-        <v>1.137665827630168</v>
+        <v>1.928560157079214</v>
       </c>
       <c r="D52" t="n">
-        <v>1.137665827630168</v>
+        <v>1.928560157079214</v>
       </c>
       <c r="E52" t="n">
-        <v>1.137665827630168</v>
+        <v>1.928560157079214</v>
       </c>
       <c r="F52" t="n">
-        <v>1.12203474347435</v>
+        <v>1.88687276272373</v>
       </c>
       <c r="G52" t="inlineStr">
-        <is>
-          <t>O</t>
-        </is>
-      </c>
-    </row>
-    <row r="53">
-      <c r="A53" s="1" t="inlineStr">
-        <is>
-          <t>Neu5Gc(a2-3)Gal(b1-4)[Fuc(a1-3)]GlcNAc</t>
-        </is>
-      </c>
-      <c r="B53" t="n">
-        <v>0.41204455675</v>
-      </c>
-      <c r="C53" t="n">
-        <v>1.928560157079214</v>
-      </c>
-      <c r="D53" t="n">
-        <v>1.928560157079214</v>
-      </c>
-      <c r="E53" t="n">
-        <v>1.928560157079214</v>
-      </c>
-      <c r="F53" t="n">
-        <v>1.88687276272373</v>
-      </c>
-      <c r="G53" t="inlineStr">
         <is>
           <t>O</t>
         </is>

--- a/scripts/correlation/metric_df/AAL_metrics.xlsx
+++ b/scripts/correlation/metric_df/AAL_metrics.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G52"/>
+  <dimension ref="A1:J75"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -446,25 +446,40 @@
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>SASA_weighted</t>
+          <t>SASA</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>SASA_weighted_max</t>
+          <t>flexibility</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>SASA_weighted_sum</t>
+          <t>Q</t>
         </is>
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>weighted_mean_flexibility</t>
+          <t>theta</t>
         </is>
       </c>
       <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>conformation</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>monosaccharides</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>motifs</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>class</t>
         </is>
@@ -473,25 +488,40 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>Fuc(a1-2)Gal</t>
+          <t>Fuc</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>2.240206323</v>
+        <v>1.108052641482263</v>
       </c>
       <c r="C2" t="n">
-        <v>2.545183117472284</v>
+        <v>2.8801507987082</v>
       </c>
       <c r="D2" t="n">
-        <v>2.545183117472284</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>2.545183117472284</v>
+        <v>0.452</v>
       </c>
       <c r="F2" t="n">
-        <v>0.2957004700470066</v>
+        <v>5.89</v>
       </c>
       <c r="G2" t="inlineStr">
+        <is>
+          <t>['1C4']</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>['Fuc(a1-1)']</t>
+        </is>
+      </c>
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>['Fuc']</t>
+        </is>
+      </c>
+      <c r="J2" t="inlineStr">
         <is>
           <t>O</t>
         </is>
@@ -500,25 +530,40 @@
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>Fuc(a1-2)Gal(b1-3)GalNAc</t>
+          <t>Fuc(a1-2)Gal</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.286337308</v>
+        <v>2.240206323086562</v>
       </c>
       <c r="C3" t="n">
-        <v>2.104865982788988</v>
+        <v>2.567820726955968</v>
       </c>
       <c r="D3" t="n">
-        <v>2.104865982788988</v>
+        <v>0.4072073874054074</v>
       </c>
       <c r="E3" t="n">
-        <v>2.104865982788988</v>
+        <v>0.438</v>
       </c>
       <c r="F3" t="n">
-        <v>1.286544565567667</v>
+        <v>8.91</v>
       </c>
       <c r="G3" t="inlineStr">
+        <is>
+          <t>['1C4']</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>['Fuc(a1-2)']</t>
+        </is>
+      </c>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>['Fuc']</t>
+        </is>
+      </c>
+      <c r="J3" t="inlineStr">
         <is>
           <t>O</t>
         </is>
@@ -527,52 +572,82 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>Fuc(a1-2)Gal(b1-3)GalNAc(b1-3)Gal(a1-4)Gal(b1-4)Glc</t>
+          <t>Fuc(a1-2)Gal(b1-3)GalNAc</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.009698878249999987</v>
+        <v>0.2022062423850025</v>
       </c>
       <c r="C4" t="n">
-        <v>2.038428332328866</v>
+        <v>2.105778298670959</v>
       </c>
       <c r="D4" t="n">
-        <v>2.038428332328866</v>
+        <v>0.9615850473936285</v>
       </c>
       <c r="E4" t="n">
-        <v>2.038428332328866</v>
+        <v>0.365</v>
       </c>
       <c r="F4" t="n">
-        <v>9.644567140000001</v>
+        <v>14.69</v>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>lipid/free</t>
+          <t>['1C4']</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>['Fuc(a1-2)']</t>
+        </is>
+      </c>
+      <c r="I4" t="inlineStr">
+        <is>
+          <t>['Fuc']</t>
+        </is>
+      </c>
+      <c r="J4" t="inlineStr">
+        <is>
+          <t>O</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>Fuc(a1-2)Gal(b1-3)GalNAc(b1-4)[Neu5Ac(a2-3)]Gal(b1-4)Glc</t>
+          <t>Fuc(a1-2)Gal(b1-3)GalNAc(b1-3)Gal(a1-4)Gal(b1-4)Glc</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.08973736675000002</v>
+        <v>0.009698878332827218</v>
       </c>
       <c r="C5" t="n">
-        <v>2.077310831150319</v>
+        <v>2.038428332328866</v>
       </c>
       <c r="D5" t="n">
-        <v>2.077310831150319</v>
+        <v>9.38008</v>
       </c>
       <c r="E5" t="n">
-        <v>2.077310831150319</v>
+        <v>0.432</v>
       </c>
       <c r="F5" t="n">
-        <v>4.227940950000008</v>
+        <v>0.89</v>
       </c>
       <c r="G5" t="inlineStr">
+        <is>
+          <t>['1C4']</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>['Fuc(a1-2)']</t>
+        </is>
+      </c>
+      <c r="I5" t="inlineStr">
+        <is>
+          <t>['Fuc']</t>
+        </is>
+      </c>
+      <c r="J5" t="inlineStr">
         <is>
           <t>lipid/free</t>
         </is>
@@ -581,133 +656,208 @@
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>Fuc(a1-2)Gal(b1-3)GlcNAc</t>
+          <t>Fuc(a1-2)Gal(b1-3)GalNAc(b1-4)[Neu5Ac(a2-3)]Gal(b1-4)Glc</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.4241996375</v>
+        <v>-0.08973736666632376</v>
       </c>
       <c r="C6" t="n">
-        <v>2.12907997324471</v>
+        <v>2.077310831150319</v>
       </c>
       <c r="D6" t="n">
-        <v>2.12907997324471</v>
+        <v>3.818350000000001</v>
       </c>
       <c r="E6" t="n">
-        <v>2.12907997324471</v>
+        <v>0.5</v>
       </c>
       <c r="F6" t="n">
-        <v>0.6843510982235121</v>
+        <v>4.73</v>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>O</t>
+          <t>['1C4']</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>['Fuc(a1-2)']</t>
+        </is>
+      </c>
+      <c r="I6" t="inlineStr">
+        <is>
+          <t>['Fuc']</t>
+        </is>
+      </c>
+      <c r="J6" t="inlineStr">
+        <is>
+          <t>lipid/free</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>Fuc(a1-2)Gal(b1-3)GlcNAc(b1-3)[Gal(b1-4)GlcNAc(b1-6)]Gal(b1-4)Glc</t>
+          <t>Fuc(a1-2)Gal(b1-3)GlcNAc</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.16028760825</v>
+        <v>0.4241996373217012</v>
       </c>
       <c r="C7" t="n">
-        <v>2.062239079820679</v>
+        <v>2.12907997324471</v>
       </c>
       <c r="D7" t="n">
-        <v>2.062239079820679</v>
+        <v>0.8943772289437723</v>
       </c>
       <c r="E7" t="n">
-        <v>2.062239079820679</v>
+        <v>0.451</v>
       </c>
       <c r="F7" t="n">
-        <v>8.653719799999996</v>
+        <v>4.05</v>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>lipid/free</t>
+          <t>['1C4']</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>['Fuc(a1-2)']</t>
+        </is>
+      </c>
+      <c r="I7" t="inlineStr">
+        <is>
+          <t>['Fuc']</t>
+        </is>
+      </c>
+      <c r="J7" t="inlineStr">
+        <is>
+          <t>O</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>Fuc(a1-2)Gal(b1-3)[Fuc(a1-4)]GlcNAc</t>
+          <t>Fuc(a1-2)Gal(b1-3)GlcNAc(b1-3)[Gal(b1-4)GlcNAc(b1-6)]Gal(b1-4)Glc</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.384560241</v>
+        <v>0.1602876081845709</v>
       </c>
       <c r="C8" t="n">
-        <v>1.879699471262461</v>
+        <v>2.062239079820679</v>
       </c>
       <c r="D8" t="n">
-        <v>1.934499862432555</v>
+        <v>8.934200000000001</v>
       </c>
       <c r="E8" t="n">
-        <v>3.759398942524922</v>
+        <v>0.461</v>
       </c>
       <c r="F8" t="n">
-        <v>1.044442319999999</v>
+        <v>8.77</v>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>O</t>
+          <t>['1C4']</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>['Fuc(a1-2)']</t>
+        </is>
+      </c>
+      <c r="I8" t="inlineStr">
+        <is>
+          <t>['Fuc']</t>
+        </is>
+      </c>
+      <c r="J8" t="inlineStr">
+        <is>
+          <t>lipid/free</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>Fuc(a1-2)Gal(b1-3)[Fuc(a1-4)]GlcNAc(b1-3)Gal(b1-4)Glc</t>
+          <t>Fuc(a1-2)Gal(b1-3)[Fuc(a1-4)]GlcNAc</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.64915704</v>
+        <v>0.3845602411921813</v>
       </c>
       <c r="C9" t="n">
-        <v>1.888273611267678</v>
+        <v>1.879699471262461</v>
       </c>
       <c r="D9" t="n">
-        <v>1.910583370180939</v>
+        <v>1.18917</v>
       </c>
       <c r="E9" t="n">
-        <v>3.776547222535355</v>
+        <v>0.479</v>
       </c>
       <c r="F9" t="n">
-        <v>2.578956608160815</v>
+        <v>4.61</v>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>lipid/free</t>
+          <t>['1C4', '1C4']</t>
+        </is>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>['Fuc(a1-2)', 'Fuc(a1-4)']</t>
+        </is>
+      </c>
+      <c r="I9" t="inlineStr">
+        <is>
+          <t>['Fuc']</t>
+        </is>
+      </c>
+      <c r="J9" t="inlineStr">
+        <is>
+          <t>O</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>Fuc(a1-2)Gal(b1-3)[Neu5Ac(a2-6)]GlcNAc(b1-3)Gal(b1-4)Glc</t>
+          <t>Fuc(a1-2)Gal(b1-3)[Fuc(a1-4)]GlcNAc(b1-3)Gal(b1-4)Glc</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>1.180320179</v>
+        <v>0.6491570397988518</v>
       </c>
       <c r="C10" t="n">
-        <v>2.05341622978308</v>
+        <v>1.888273611267678</v>
       </c>
       <c r="D10" t="n">
-        <v>2.05341622978308</v>
+        <v>2.409159665966597</v>
       </c>
       <c r="E10" t="n">
-        <v>2.05341622978308</v>
+        <v>0.4495</v>
       </c>
       <c r="F10" t="n">
-        <v>5.915408140814083</v>
+        <v>8.149999999999999</v>
       </c>
       <c r="G10" t="inlineStr">
+        <is>
+          <t>['1C4', '1C4']</t>
+        </is>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>['Fuc(a1-2)', 'Fuc(a1-4)']</t>
+        </is>
+      </c>
+      <c r="I10" t="inlineStr">
+        <is>
+          <t>['Fuc']</t>
+        </is>
+      </c>
+      <c r="J10" t="inlineStr">
         <is>
           <t>lipid/free</t>
         </is>
@@ -716,52 +866,82 @@
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>Fuc(a1-2)Gal(b1-4)GlcNAc</t>
+          <t>Fuc(a1-2)Gal(b1-3)[Neu5Ac(a2-6)]GlcNAc(b1-3)Gal(b1-4)Glc</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1.58052373475</v>
+        <v>1.180320179413362</v>
       </c>
       <c r="C11" t="n">
-        <v>2.273759042726899</v>
+        <v>2.05341622978308</v>
       </c>
       <c r="D11" t="n">
-        <v>2.273759042726899</v>
+        <v>6.35983598359836</v>
       </c>
       <c r="E11" t="n">
-        <v>2.273759042726899</v>
+        <v>0.457</v>
       </c>
       <c r="F11" t="n">
-        <v>1.908781921807819</v>
+        <v>2.6</v>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>O</t>
+          <t>['1C4']</t>
+        </is>
+      </c>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>['Fuc(a1-2)']</t>
+        </is>
+      </c>
+      <c r="I11" t="inlineStr">
+        <is>
+          <t>['Fuc']</t>
+        </is>
+      </c>
+      <c r="J11" t="inlineStr">
+        <is>
+          <t>lipid/free</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>Fuc(a1-2)Gal(b1-4)[Fuc(a1-3)]GlcNAc</t>
+          <t>Fuc(a1-2)Gal(b1-4)GlcNAc</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>2.14444015725</v>
+        <v>1.580523734827906</v>
       </c>
       <c r="C12" t="n">
-        <v>1.965284185598133</v>
+        <v>2.273759042726899</v>
       </c>
       <c r="D12" t="n">
-        <v>2.170830920556838</v>
+        <v>2.228010532280105</v>
       </c>
       <c r="E12" t="n">
-        <v>3.930568371196265</v>
+        <v>0.426</v>
       </c>
       <c r="F12" t="n">
-        <v>0.8258490849084912</v>
+        <v>2.49</v>
       </c>
       <c r="G12" t="inlineStr">
+        <is>
+          <t>['1C4']</t>
+        </is>
+      </c>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>['Fuc(a1-2)']</t>
+        </is>
+      </c>
+      <c r="I12" t="inlineStr">
+        <is>
+          <t>['Fuc']</t>
+        </is>
+      </c>
+      <c r="J12" t="inlineStr">
         <is>
           <t>O</t>
         </is>
@@ -770,79 +950,124 @@
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
         <is>
-          <t>Fuc(a1-2)Gal(b1-4)[Fuc(a1-3)]GlcNAc(b1-3)[Fuc(a1-3)[Gal(b1-4)]GlcNAc(b1-6)]Gal(b1-4)Glc</t>
+          <t>Fuc(a1-2)Gal(b1-4)[Fuc(a1-3)]GlcNAc</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>1.638516441</v>
+        <v>2.144440157418994</v>
       </c>
       <c r="C13" t="n">
-        <v>1.911392000330854</v>
+        <v>1.965284185598133</v>
       </c>
       <c r="D13" t="n">
-        <v>1.94111501673313</v>
+        <v>0.838733873387339</v>
       </c>
       <c r="E13" t="n">
-        <v>5.734176000992563</v>
+        <v>0.4665</v>
       </c>
       <c r="F13" t="n">
-        <v>19.88427059294071</v>
+        <v>7.154999999999999</v>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>lipid/free</t>
+          <t>['1C4', '1C4']</t>
+        </is>
+      </c>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>['Fuc(a1-2)', 'Fuc(a1-3)']</t>
+        </is>
+      </c>
+      <c r="I13" t="inlineStr">
+        <is>
+          <t>['Fuc']</t>
+        </is>
+      </c>
+      <c r="J13" t="inlineStr">
+        <is>
+          <t>O</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>Fuc(a1-2)[Gal(a1-3)]Gal(b1-3)GalNAc</t>
+          <t>Fuc(a1-2)Gal(b1-4)[Fuc(a1-3)]GlcNAc(b1-3)[Fuc(a1-2)Gal(b1-4)[Fuc(a1-3)]GlcNAc(b1-6)]Gal(b1-4)Glc</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>-0.1156587283333333</v>
+        <v>1.353275200680805</v>
       </c>
       <c r="C14" t="n">
-        <v>1.844472854319896</v>
+        <v>1.715280274149606</v>
       </c>
       <c r="D14" t="n">
-        <v>1.844472854319896</v>
+        <v>30.08162517081625</v>
       </c>
       <c r="E14" t="n">
-        <v>1.844472854319896</v>
+        <v>0.446</v>
       </c>
       <c r="F14" t="n">
-        <v>1.326902499999996</v>
+        <v>5.01</v>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>O</t>
+          <t>['1C4', '1C4', '1C4', '1C4']</t>
+        </is>
+      </c>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>['Fuc(a1-2)', 'Fuc(a1-3)', 'Fuc(a1-2)', 'Fuc(a1-3)']</t>
+        </is>
+      </c>
+      <c r="I14" t="inlineStr">
+        <is>
+          <t>['Fuc']</t>
+        </is>
+      </c>
+      <c r="J14" t="inlineStr">
+        <is>
+          <t>lipid/free</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="inlineStr">
         <is>
-          <t>Fuc(a1-2)[Gal(a1-3)]Gal(b1-4)Glc</t>
+          <t>Fuc(a1-2)Gal(b1-4)[Fuc(a1-3)]GlcNAc(b1-3)[Fuc(a1-3)[Gal(b1-4)]GlcNAc(b1-6)]Gal(b1-4)Glc</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>-0.202893996</v>
+        <v>1.638516440584783</v>
       </c>
       <c r="C15" t="n">
-        <v>1.955767986496258</v>
+        <v>1.911392000330854</v>
       </c>
       <c r="D15" t="n">
-        <v>1.955767986496258</v>
+        <v>19.95360463953605</v>
       </c>
       <c r="E15" t="n">
-        <v>1.955767986496258</v>
+        <v>0.4603333333333333</v>
       </c>
       <c r="F15" t="n">
-        <v>2.219634240000001</v>
+        <v>4.853333333333333</v>
       </c>
       <c r="G15" t="inlineStr">
+        <is>
+          <t>['1C4', '1C4', '1C4']</t>
+        </is>
+      </c>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>['Fuc(a1-2)', 'Fuc(a1-3)', 'Fuc(a1-3)']</t>
+        </is>
+      </c>
+      <c r="I15" t="inlineStr">
+        <is>
+          <t>['Fuc']</t>
+        </is>
+      </c>
+      <c r="J15" t="inlineStr">
         <is>
           <t>lipid/free</t>
         </is>
@@ -851,52 +1076,82 @@
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>Fuc(a1-2)[Gal(a1-3)]Gal(b1-4)GlcNAc(b1-3)Gal(b1-4)Glc</t>
+          <t>Fuc(a1-2)[Gal(a1-3)]Gal</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>-0.50647788</v>
+        <v>1.417648519975526</v>
       </c>
       <c r="C16" t="n">
-        <v>2.074553668654954</v>
+        <v>2.18388325547485</v>
       </c>
       <c r="D16" t="n">
-        <v>2.074553668654954</v>
+        <v>1.66107674946791</v>
       </c>
       <c r="E16" t="n">
-        <v>2.074553668654954</v>
+        <v>0.436</v>
       </c>
       <c r="F16" t="n">
-        <v>6.404429833333334</v>
+        <v>14.08</v>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>lipid/free</t>
+          <t>['1C4']</t>
+        </is>
+      </c>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t>['Fuc(a1-2)']</t>
+        </is>
+      </c>
+      <c r="I16" t="inlineStr">
+        <is>
+          <t>['Fuc']</t>
+        </is>
+      </c>
+      <c r="J16" t="inlineStr">
+        <is>
+          <t>O</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="inlineStr">
         <is>
-          <t>Fuc(a1-2)[Gal(a1-3)]Gal(b1-4)GlcNAc(b1-3)GalNAc</t>
+          <t>Fuc(a1-2)[Gal(a1-3)]Gal(b1-3)GalNAc</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>-0.2176561095</v>
+        <v>-0.1156587286027375</v>
       </c>
       <c r="C17" t="n">
-        <v>1.908591060345055</v>
+        <v>1.842274806741561</v>
       </c>
       <c r="D17" t="n">
-        <v>1.908591060345055</v>
+        <v>1.724533333333333</v>
       </c>
       <c r="E17" t="n">
-        <v>1.908591060345055</v>
+        <v>0.416</v>
       </c>
       <c r="F17" t="n">
-        <v>2.380046260000001</v>
+        <v>6.95</v>
       </c>
       <c r="G17" t="inlineStr">
+        <is>
+          <t>['1C4']</t>
+        </is>
+      </c>
+      <c r="H17" t="inlineStr">
+        <is>
+          <t>['Fuc(a1-2)']</t>
+        </is>
+      </c>
+      <c r="I17" t="inlineStr">
+        <is>
+          <t>['Fuc']</t>
+        </is>
+      </c>
+      <c r="J17" t="inlineStr">
         <is>
           <t>O</t>
         </is>
@@ -905,79 +1160,124 @@
     <row r="18">
       <c r="A18" s="1" t="inlineStr">
         <is>
-          <t>Fuc(a1-2)[Gal(a1-3)]Gal(b1-4)GlcNAc(b1-3)[Fuc(a1-2)[Gal(a1-3)]Gal(b1-4)GlcNAc(b1-6)]GalNAc</t>
+          <t>Fuc(a1-2)[Gal(a1-3)]Gal(b1-3)GalNAc(b1-3)Gal(a1-4)Gal(b1-4)Glc</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>-0.1986236446666667</v>
+        <v>-0.3638994731861487</v>
       </c>
       <c r="C18" t="n">
-        <v>1.862730805568281</v>
+        <v>1.574337792348361</v>
       </c>
       <c r="D18" t="n">
-        <v>2.010569994016131</v>
+        <v>15.286675</v>
       </c>
       <c r="E18" t="n">
-        <v>3.725461611136561</v>
+        <v>0.413</v>
       </c>
       <c r="F18" t="n">
-        <v>17.30735466666665</v>
+        <v>6.7</v>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>O</t>
+          <t>['1C4']</t>
+        </is>
+      </c>
+      <c r="H18" t="inlineStr">
+        <is>
+          <t>['Fuc(a1-2)']</t>
+        </is>
+      </c>
+      <c r="I18" t="inlineStr">
+        <is>
+          <t>['Fuc']</t>
+        </is>
+      </c>
+      <c r="J18" t="inlineStr">
+        <is>
+          <t>lipid/free</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
         <is>
-          <t>Fuc(a1-2)[GalNAc(a1-3)]Gal(b1-3)GalNAc</t>
+          <t>Fuc(a1-2)[Gal(a1-3)]Gal(b1-4)Glc</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>-0.379359657</v>
+        <v>-0.2028939961105259</v>
       </c>
       <c r="C19" t="n">
-        <v>1.770798686109169</v>
+        <v>1.955767986496258</v>
       </c>
       <c r="D19" t="n">
-        <v>1.770798686109169</v>
+        <v>2.63788</v>
       </c>
       <c r="E19" t="n">
-        <v>1.770798686109169</v>
+        <v>0.525</v>
       </c>
       <c r="F19" t="n">
-        <v>1.784182919999997</v>
+        <v>8.42</v>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>O</t>
+          <t>['1C4']</t>
+        </is>
+      </c>
+      <c r="H19" t="inlineStr">
+        <is>
+          <t>['Fuc(a1-2)']</t>
+        </is>
+      </c>
+      <c r="I19" t="inlineStr">
+        <is>
+          <t>['Fuc']</t>
+        </is>
+      </c>
+      <c r="J19" t="inlineStr">
+        <is>
+          <t>lipid/free</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
         <is>
-          <t>Fuc(a1-2)[GalNAc(a1-3)]Gal(b1-3)[Fuc(a1-4)]GlcNAc(b1-3)Gal(b1-4)Glc</t>
+          <t>Fuc(a1-2)[Gal(a1-3)]Gal(b1-4)GlcNAc(b1-3)Gal(b1-4)Glc</t>
         </is>
       </c>
       <c r="B20" t="n">
-        <v>-0.469656316</v>
+        <v>-0.5064778804872484</v>
       </c>
       <c r="C20" t="n">
-        <v>1.669857997159468</v>
+        <v>2.074553668654954</v>
       </c>
       <c r="D20" t="n">
-        <v>1.677303481074935</v>
+        <v>6.117766666666665</v>
       </c>
       <c r="E20" t="n">
-        <v>3.339715994318936</v>
+        <v>0.4</v>
       </c>
       <c r="F20" t="n">
-        <v>4.275120000000004</v>
+        <v>10.27</v>
       </c>
       <c r="G20" t="inlineStr">
+        <is>
+          <t>['1C4']</t>
+        </is>
+      </c>
+      <c r="H20" t="inlineStr">
+        <is>
+          <t>['Fuc(a1-2)']</t>
+        </is>
+      </c>
+      <c r="I20" t="inlineStr">
+        <is>
+          <t>['Fuc']</t>
+        </is>
+      </c>
+      <c r="J20" t="inlineStr">
         <is>
           <t>lipid/free</t>
         </is>
@@ -986,133 +1286,208 @@
     <row r="21">
       <c r="A21" s="1" t="inlineStr">
         <is>
-          <t>Fuc(a1-3)[Gal(b1-4)]GlcNAc(b1-2)Man(a1-3)[Fuc(a1-3)[Gal(b1-4)]GlcNAc(b1-2)Man(a1-6)]Man(b1-4)GlcNAc(b1-4)GlcNAc</t>
+          <t>Fuc(a1-2)[Gal(a1-3)]Gal(b1-4)GlcNAc(b1-3)GalNAc</t>
         </is>
       </c>
       <c r="B21" t="n">
-        <v>0.350788226</v>
+        <v>-0.2176561095681561</v>
       </c>
       <c r="C21" t="n">
-        <v>1.581923325076553</v>
+        <v>1.908591060345055</v>
       </c>
       <c r="D21" t="n">
-        <v>1.600011989804885</v>
+        <v>2.88432</v>
       </c>
       <c r="E21" t="n">
-        <v>3.163846650153106</v>
+        <v>0.432</v>
       </c>
       <c r="F21" t="n">
-        <v>43.07604834858486</v>
+        <v>3.35</v>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>N</t>
+          <t>['1C4']</t>
+        </is>
+      </c>
+      <c r="H21" t="inlineStr">
+        <is>
+          <t>['Fuc(a1-2)']</t>
+        </is>
+      </c>
+      <c r="I21" t="inlineStr">
+        <is>
+          <t>['Fuc']</t>
+        </is>
+      </c>
+      <c r="J21" t="inlineStr">
+        <is>
+          <t>O</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="inlineStr">
         <is>
-          <t>Fuc(a1-3)[Gal(b1-4)]GlcNAc(b1-2)Man(a1-3)[Fuc(a1-3)[Gal(b1-4)]GlcNAc(b1-2)Man(a1-6)]Man(b1-4)GlcNAc(b1-4)[Fuc(a1-6)]GlcNAc</t>
+          <t>Fuc(a1-2)[Gal(a1-3)]Gal(b1-4)GlcNAc(b1-3)[Fuc(a1-2)[Gal(a1-3)]Gal(b1-4)GlcNAc(b1-6)]GalNAc</t>
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0.04139189324999999</v>
+        <v>-0.1986236447205105</v>
       </c>
       <c r="C22" t="n">
-        <v>1.724610006213022</v>
+        <v>1.862730805568281</v>
       </c>
       <c r="D22" t="n">
-        <v>1.908119887503346</v>
+        <v>16.4547</v>
       </c>
       <c r="E22" t="n">
-        <v>5.173830018639067</v>
+        <v>0.4505</v>
       </c>
       <c r="F22" t="n">
-        <v>26.46877407185162</v>
+        <v>5.205</v>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>N</t>
+          <t>['1C4', '1C4']</t>
+        </is>
+      </c>
+      <c r="H22" t="inlineStr">
+        <is>
+          <t>['Fuc(a1-2)', 'Fuc(a1-2)']</t>
+        </is>
+      </c>
+      <c r="I22" t="inlineStr">
+        <is>
+          <t>['Fuc']</t>
+        </is>
+      </c>
+      <c r="J22" t="inlineStr">
+        <is>
+          <t>O</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="inlineStr">
         <is>
-          <t>Fuc(a1-3)[Gal(b1-4)]GlcNAc(b1-2)Man(a1-3)[Gal(b1-4)GlcNAc(b1-2)Man(a1-6)]Man(b1-4)GlcNAc(b1-4)GlcNAc</t>
+          <t>Fuc(a1-2)[GalNAc(a1-3)]Gal</t>
         </is>
       </c>
       <c r="B23" t="n">
-        <v>1.186352685</v>
+        <v>0.8581910653054536</v>
       </c>
       <c r="C23" t="n">
-        <v>1.952742836112575</v>
+        <v>2.307678049674874</v>
       </c>
       <c r="D23" t="n">
-        <v>1.952742836112575</v>
+        <v>1.057119288071193</v>
       </c>
       <c r="E23" t="n">
-        <v>1.952742836112575</v>
+        <v>0.473</v>
       </c>
       <c r="F23" t="n">
-        <v>21.47907028000001</v>
+        <v>3.78</v>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>N</t>
+          <t>['1C4']</t>
+        </is>
+      </c>
+      <c r="H23" t="inlineStr">
+        <is>
+          <t>['Fuc(a1-2)']</t>
+        </is>
+      </c>
+      <c r="I23" t="inlineStr">
+        <is>
+          <t>['Fuc']</t>
+        </is>
+      </c>
+      <c r="J23" t="inlineStr">
+        <is>
+          <t>O</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="inlineStr">
         <is>
-          <t>Fuc(a1-3)[Gal(b1-4)]GlcNAc(b1-2)Man(a1-3)[GlcNAc(b1-2)Man(a1-6)]Man(b1-4)GlcNAc(b1-4)GlcNAc</t>
+          <t>Fuc(a1-2)[GalNAc(a1-3)]Gal(b1-3)GalNAc</t>
         </is>
       </c>
       <c r="B24" t="n">
-        <v>1.549582994</v>
+        <v>-0.3793596567325036</v>
       </c>
       <c r="C24" t="n">
-        <v>1.881733706693037</v>
+        <v>1.765228092033847</v>
       </c>
       <c r="D24" t="n">
-        <v>1.881733706693037</v>
+        <v>2.22234</v>
       </c>
       <c r="E24" t="n">
-        <v>1.881733706693037</v>
+        <v>0.443</v>
       </c>
       <c r="F24" t="n">
-        <v>21.15143896000001</v>
+        <v>3.63</v>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>N</t>
+          <t>['1C4']</t>
+        </is>
+      </c>
+      <c r="H24" t="inlineStr">
+        <is>
+          <t>['Fuc(a1-2)']</t>
+        </is>
+      </c>
+      <c r="I24" t="inlineStr">
+        <is>
+          <t>['Fuc']</t>
+        </is>
+      </c>
+      <c r="J24" t="inlineStr">
+        <is>
+          <t>O</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="inlineStr">
         <is>
-          <t>Fuc(a1-3)[Gal(b1-4)]GlcNAc(b1-3)[Fuc(a1-3)[Gal(b1-4)]GlcNAc(b1-6)]Gal(b1-4)Glc</t>
+          <t>Fuc(a1-2)[GalNAc(a1-3)]Gal(b1-3)GalNAc(b1-3)Gal(a1-4)Gal(b1-4)Glc</t>
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0.949682705</v>
+        <v>-0.2714967621314585</v>
       </c>
       <c r="C25" t="n">
-        <v>1.824909602345942</v>
+        <v>1.69390661475062</v>
       </c>
       <c r="D25" t="n">
-        <v>1.863657215672761</v>
+        <v>17.7932193219322</v>
       </c>
       <c r="E25" t="n">
-        <v>3.649819204691884</v>
+        <v>0.452</v>
       </c>
       <c r="F25" t="n">
-        <v>17.92982791136256</v>
+        <v>1.49</v>
       </c>
       <c r="G25" t="inlineStr">
+        <is>
+          <t>['1C4']</t>
+        </is>
+      </c>
+      <c r="H25" t="inlineStr">
+        <is>
+          <t>['Fuc(a1-2)']</t>
+        </is>
+      </c>
+      <c r="I25" t="inlineStr">
+        <is>
+          <t>['Fuc']</t>
+        </is>
+      </c>
+      <c r="J25" t="inlineStr">
         <is>
           <t>lipid/free</t>
         </is>
@@ -1121,25 +1496,40 @@
     <row r="26">
       <c r="A26" s="1" t="inlineStr">
         <is>
-          <t>Fuc(a1-3)[Gal(b1-4)]GlcNAc(b1-3)[GlcNAc(b1-6)]Gal(b1-4)Glc</t>
+          <t>Fuc(a1-2)[GalNAc(a1-3)]Gal(b1-3)[Fuc(a1-4)]GlcNAc(b1-3)Gal(b1-4)Glc</t>
         </is>
       </c>
       <c r="B26" t="n">
-        <v>1.495895821</v>
+        <v>-0.4696563164686307</v>
       </c>
       <c r="C26" t="n">
-        <v>1.963911736532091</v>
+        <v>1.669857997159468</v>
       </c>
       <c r="D26" t="n">
-        <v>1.963911736532091</v>
+        <v>4.053566666666666</v>
       </c>
       <c r="E26" t="n">
-        <v>1.963911736532091</v>
+        <v>0.4645</v>
       </c>
       <c r="F26" t="n">
-        <v>11.90423596</v>
+        <v>2.65</v>
       </c>
       <c r="G26" t="inlineStr">
+        <is>
+          <t>['1C4', '1C4']</t>
+        </is>
+      </c>
+      <c r="H26" t="inlineStr">
+        <is>
+          <t>['Fuc(a1-2)', 'Fuc(a1-4)']</t>
+        </is>
+      </c>
+      <c r="I26" t="inlineStr">
+        <is>
+          <t>['Fuc']</t>
+        </is>
+      </c>
+      <c r="J26" t="inlineStr">
         <is>
           <t>lipid/free</t>
         </is>
@@ -1148,52 +1538,82 @@
     <row r="27">
       <c r="A27" s="1" t="inlineStr">
         <is>
-          <t>Fuc(a1-3)[GalNAc(b1-4)]GlcNAc(b1-2)Man(a1-3)[Fuc(a1-3)[GalNAc(b1-4)]GlcNAc(b1-2)Man(a1-6)]Man(b1-4)GlcNAc(b1-4)GlcNAc</t>
+          <t>Fuc(a1-2)[GalNAc(a1-3)]Gal(b1-4)GlcNAc</t>
         </is>
       </c>
       <c r="B27" t="n">
-        <v>0.821133242</v>
+        <v>-0.1389861216446075</v>
       </c>
       <c r="C27" t="n">
-        <v>1.647726393874084</v>
+        <v>1.956577845743809</v>
       </c>
       <c r="D27" t="n">
-        <v>1.83051119502839</v>
+        <v>3.292720727927207</v>
       </c>
       <c r="E27" t="n">
-        <v>3.295452787748169</v>
+        <v>0.418</v>
       </c>
       <c r="F27" t="n">
-        <v>29.07966613327999</v>
+        <v>6.63</v>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>N</t>
+          <t>['1C4']</t>
+        </is>
+      </c>
+      <c r="H27" t="inlineStr">
+        <is>
+          <t>['Fuc(a1-2)']</t>
+        </is>
+      </c>
+      <c r="I27" t="inlineStr">
+        <is>
+          <t>['Fuc']</t>
+        </is>
+      </c>
+      <c r="J27" t="inlineStr">
+        <is>
+          <t>O</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="inlineStr">
         <is>
-          <t>Gal(b1-3)[Fuc(a1-4)]GlcNAc</t>
+          <t>Fuc(a1-2)[GalNAc(a1-3)]Gal(b1-4)GlcNAc(b1-3)GalNAc</t>
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0.8099813499999999</v>
+        <v>-0.4477105556482922</v>
       </c>
       <c r="C28" t="n">
-        <v>2.132314839689439</v>
+        <v>1.971896924136719</v>
       </c>
       <c r="D28" t="n">
-        <v>2.132314839689439</v>
+        <v>3.731093781243751</v>
       </c>
       <c r="E28" t="n">
-        <v>2.132314839689439</v>
+        <v>0.442</v>
       </c>
       <c r="F28" t="n">
-        <v>1.032800363369671</v>
+        <v>3.23</v>
       </c>
       <c r="G28" t="inlineStr">
+        <is>
+          <t>['1C4']</t>
+        </is>
+      </c>
+      <c r="H28" t="inlineStr">
+        <is>
+          <t>['Fuc(a1-2)']</t>
+        </is>
+      </c>
+      <c r="I28" t="inlineStr">
+        <is>
+          <t>['Fuc']</t>
+        </is>
+      </c>
+      <c r="J28" t="inlineStr">
         <is>
           <t>O</t>
         </is>
@@ -1202,106 +1622,162 @@
     <row r="29">
       <c r="A29" s="1" t="inlineStr">
         <is>
-          <t>Gal(b1-3)[Fuc(a1-4)]GlcNAc(b1-3)Gal</t>
+          <t>Fuc(a1-3)[Gal(b1-4)]Glc</t>
         </is>
       </c>
       <c r="B29" t="n">
-        <v>1.544706267</v>
+        <v>0.5460646495577158</v>
       </c>
       <c r="C29" t="n">
-        <v>2.057713565502089</v>
+        <v>2.040432691307588</v>
       </c>
       <c r="D29" t="n">
-        <v>2.057713565502089</v>
+        <v>0.7060666666666664</v>
       </c>
       <c r="E29" t="n">
-        <v>2.057713565502089</v>
+        <v>0.471</v>
       </c>
       <c r="F29" t="n">
-        <v>2.145042860000003</v>
+        <v>6.74</v>
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>O</t>
-        </is>
-      </c>
+          <t>['1C4']</t>
+        </is>
+      </c>
+      <c r="H29" t="inlineStr">
+        <is>
+          <t>['Fuc(a1-3)']</t>
+        </is>
+      </c>
+      <c r="I29" t="inlineStr">
+        <is>
+          <t>['Fuc']</t>
+        </is>
+      </c>
+      <c r="J29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" s="1" t="inlineStr">
         <is>
-          <t>Gal(b1-3)[Fuc(a1-4)]GlcNAc(b1-3)Gal(b1-4)Glc</t>
+          <t>Fuc(a1-3)[Gal(b1-4)]GlcNAc</t>
         </is>
       </c>
       <c r="B30" t="n">
-        <v>0.167828653</v>
+        <v>0.7720954716763503</v>
       </c>
       <c r="C30" t="n">
-        <v>2.030365137387976</v>
+        <v>1.847296205066145</v>
       </c>
       <c r="D30" t="n">
-        <v>2.030365137387976</v>
+        <v>0.5957333333333329</v>
       </c>
       <c r="E30" t="n">
-        <v>2.030365137387976</v>
+        <v>0.431</v>
       </c>
       <c r="F30" t="n">
-        <v>6.011923522352238</v>
+        <v>6.9</v>
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>lipid/free</t>
+          <t>['1C4']</t>
+        </is>
+      </c>
+      <c r="H30" t="inlineStr">
+        <is>
+          <t>['Fuc(a1-3)']</t>
+        </is>
+      </c>
+      <c r="I30" t="inlineStr">
+        <is>
+          <t>['Fuc']</t>
+        </is>
+      </c>
+      <c r="J30" t="inlineStr">
+        <is>
+          <t>O</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="1" t="inlineStr">
         <is>
-          <t>Gal(b1-4)GlcNAc(b1-2)Man(a1-3)[Fuc(a1-3)[Gal(b1-4)]GlcNAc(b1-2)Man(a1-6)]Man(b1-4)GlcNAc(b1-4)GlcNAc</t>
+          <t>Fuc(a1-3)[Gal(b1-4)]GlcNAc(b1-2)Man</t>
         </is>
       </c>
       <c r="B31" t="n">
-        <v>1.08805908</v>
+        <v>-0.2361955038492448</v>
       </c>
       <c r="C31" t="n">
-        <v>1.56490231353927</v>
+        <v>1.937740019652061</v>
       </c>
       <c r="D31" t="n">
-        <v>1.56490231353927</v>
+        <v>2.5845</v>
       </c>
       <c r="E31" t="n">
-        <v>1.56490231353927</v>
+        <v>0.475</v>
       </c>
       <c r="F31" t="n">
-        <v>41.33179165000001</v>
+        <v>15.08</v>
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>N</t>
+          <t>['1C4']</t>
+        </is>
+      </c>
+      <c r="H31" t="inlineStr">
+        <is>
+          <t>['Fuc(a1-3)']</t>
+        </is>
+      </c>
+      <c r="I31" t="inlineStr">
+        <is>
+          <t>['Fuc']</t>
+        </is>
+      </c>
+      <c r="J31" t="inlineStr">
+        <is>
+          <t>O</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="1" t="inlineStr">
         <is>
-          <t>Gal(b1-4)GlcNAc(b1-2)Man(a1-3)[Gal(b1-4)GlcNAc(b1-2)Man(a1-6)]Man(b1-4)GlcNAc(b1-4)[Fuc(a1-3)][Fuc(a1-6)]GlcNAc</t>
+          <t>Fuc(a1-3)[Gal(b1-4)]GlcNAc(b1-2)Man(a1-3)[Fuc(a1-3)[Gal(b1-4)]GlcNAc(b1-2)Man(a1-6)]Man(b1-4)GlcNAc(b1-4)GlcNAc</t>
         </is>
       </c>
       <c r="B32" t="n">
-        <v>0.426619067</v>
+        <v>0.3478245982145588</v>
       </c>
       <c r="C32" t="n">
-        <v>1.664693174984509</v>
+        <v>1.581923325076553</v>
       </c>
       <c r="D32" t="n">
-        <v>1.762360104945837</v>
+        <v>43.16919191919192</v>
       </c>
       <c r="E32" t="n">
-        <v>3.329386349969019</v>
+        <v>0.484</v>
       </c>
       <c r="F32" t="n">
-        <v>21.48710625</v>
+        <v>6.23</v>
       </c>
       <c r="G32" t="inlineStr">
+        <is>
+          <t>['1C4', '1C4']</t>
+        </is>
+      </c>
+      <c r="H32" t="inlineStr">
+        <is>
+          <t>['Fuc(a1-3)', 'Fuc(a1-3)']</t>
+        </is>
+      </c>
+      <c r="I32" t="inlineStr">
+        <is>
+          <t>['Fuc']</t>
+        </is>
+      </c>
+      <c r="J32" t="inlineStr">
         <is>
           <t>N</t>
         </is>
@@ -1310,25 +1786,40 @@
     <row r="33">
       <c r="A33" s="1" t="inlineStr">
         <is>
-          <t>Gal(b1-4)GlcNAc(b1-2)Man(a1-3)[Gal(b1-4)GlcNAc(b1-2)Man(a1-6)]Man(b1-4)GlcNAc(b1-4)[Fuc(a1-6)]GlcNAc</t>
+          <t>Fuc(a1-3)[Gal(b1-4)]GlcNAc(b1-2)Man(a1-3)[Fuc(a1-3)[Gal(b1-4)]GlcNAc(b1-2)Man(a1-6)]Man(b1-4)GlcNAc(b1-4)[Fuc(a1-6)]GlcNAc</t>
         </is>
       </c>
       <c r="B33" t="n">
-        <v>0.31258591275</v>
+        <v>0.04139189341472915</v>
       </c>
       <c r="C33" t="n">
-        <v>1.656675648076949</v>
+        <v>1.724610006213022</v>
       </c>
       <c r="D33" t="n">
-        <v>1.656675648076949</v>
+        <v>26.7062206220622</v>
       </c>
       <c r="E33" t="n">
-        <v>1.656675648076949</v>
+        <v>0.4706666666666666</v>
       </c>
       <c r="F33" t="n">
-        <v>24.56787435</v>
+        <v>7.079999999999999</v>
       </c>
       <c r="G33" t="inlineStr">
+        <is>
+          <t>['1C4', '1C4', '1C4']</t>
+        </is>
+      </c>
+      <c r="H33" t="inlineStr">
+        <is>
+          <t>['Fuc(a1-3)', 'Fuc(a1-3)', 'Fuc(a1-6)']</t>
+        </is>
+      </c>
+      <c r="I33" t="inlineStr">
+        <is>
+          <t>['Fuc']</t>
+        </is>
+      </c>
+      <c r="J33" t="inlineStr">
         <is>
           <t>N</t>
         </is>
@@ -1337,25 +1828,40 @@
     <row r="34">
       <c r="A34" s="1" t="inlineStr">
         <is>
-          <t>Gal(b1-4)GlcNAc(b1-2)Man(a1-3)[GlcNAc(b1-2)Man(a1-6)]Man(b1-4)GlcNAc(b1-4)[Fuc(a1-6)]GlcNAc</t>
+          <t>Fuc(a1-3)[Gal(b1-4)]GlcNAc(b1-2)Man(a1-3)[Gal(b1-4)GlcNAc(b1-2)Man(a1-6)]Man(b1-4)GlcNAc(b1-4)GlcNAc</t>
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0.513143012</v>
+        <v>1.186352685265412</v>
       </c>
       <c r="C34" t="n">
-        <v>2.032631731546139</v>
+        <v>1.952742836112575</v>
       </c>
       <c r="D34" t="n">
-        <v>2.032631731546139</v>
+        <v>22.1351</v>
       </c>
       <c r="E34" t="n">
-        <v>2.032631731546139</v>
+        <v>0.41</v>
       </c>
       <c r="F34" t="n">
-        <v>16.30643722294437</v>
+        <v>6.22</v>
       </c>
       <c r="G34" t="inlineStr">
+        <is>
+          <t>['1C4']</t>
+        </is>
+      </c>
+      <c r="H34" t="inlineStr">
+        <is>
+          <t>['Fuc(a1-3)']</t>
+        </is>
+      </c>
+      <c r="I34" t="inlineStr">
+        <is>
+          <t>['Fuc']</t>
+        </is>
+      </c>
+      <c r="J34" t="inlineStr">
         <is>
           <t>N</t>
         </is>
@@ -1364,25 +1870,40 @@
     <row r="35">
       <c r="A35" s="1" t="inlineStr">
         <is>
-          <t>GlcNAc(b1-2)Man(a1-3)Man(b1-4)GlcNAc(b1-4)[Fuc(a1-6)]GlcNAc</t>
+          <t>Fuc(a1-3)[Gal(b1-4)]GlcNAc(b1-2)Man(a1-3)[GlcNAc(b1-2)Man(a1-6)]Man(b1-4)GlcNAc(b1-4)GlcNAc</t>
         </is>
       </c>
       <c r="B35" t="n">
-        <v>1.214810581</v>
+        <v>1.549582993911066</v>
       </c>
       <c r="C35" t="n">
-        <v>2.386004558665317</v>
+        <v>1.881733706693037</v>
       </c>
       <c r="D35" t="n">
-        <v>2.386004558665317</v>
+        <v>21.89828</v>
       </c>
       <c r="E35" t="n">
-        <v>2.386004558665317</v>
+        <v>0.423</v>
       </c>
       <c r="F35" t="n">
-        <v>8.772130900000002</v>
+        <v>12.06</v>
       </c>
       <c r="G35" t="inlineStr">
+        <is>
+          <t>['1C4']</t>
+        </is>
+      </c>
+      <c r="H35" t="inlineStr">
+        <is>
+          <t>['Fuc(a1-3)']</t>
+        </is>
+      </c>
+      <c r="I35" t="inlineStr">
+        <is>
+          <t>['Fuc']</t>
+        </is>
+      </c>
+      <c r="J35" t="inlineStr">
         <is>
           <t>N</t>
         </is>
@@ -1391,160 +1912,250 @@
     <row r="36">
       <c r="A36" s="1" t="inlineStr">
         <is>
-          <t>GlcNAc(b1-2)Man(a1-3)[GlcNAc(b1-2)Man(a1-6)]Man(b1-4)GlcNAc(b1-4)[Fuc(a1-3)]GlcNAc</t>
+          <t>Fuc(a1-3)[Gal(b1-4)]GlcNAc(b1-3)[Fuc(a1-3)[Gal(b1-4)]GlcNAc(b1-6)]Gal(b1-4)Glc</t>
         </is>
       </c>
       <c r="B36" t="n">
-        <v>-0.6648078039999999</v>
+        <v>0.9496827048380722</v>
       </c>
       <c r="C36" t="n">
-        <v>1.568277264894773</v>
+        <v>1.824909602345942</v>
       </c>
       <c r="D36" t="n">
-        <v>1.568277264894773</v>
+        <v>18.16984555598417</v>
       </c>
       <c r="E36" t="n">
-        <v>1.568277264894773</v>
+        <v>0.4235</v>
       </c>
       <c r="F36" t="n">
-        <v>8.106840817415074</v>
+        <v>4.42</v>
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>O</t>
+          <t>['1C4', '1C4']</t>
+        </is>
+      </c>
+      <c r="H36" t="inlineStr">
+        <is>
+          <t>['Fuc(a1-3)', 'Fuc(a1-3)']</t>
+        </is>
+      </c>
+      <c r="I36" t="inlineStr">
+        <is>
+          <t>['Fuc']</t>
+        </is>
+      </c>
+      <c r="J36" t="inlineStr">
+        <is>
+          <t>lipid/free</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="1" t="inlineStr">
         <is>
-          <t>GlcNAc(b1-2)Man(a1-3)[GlcNAc(b1-2)Man(a1-6)]Man(b1-4)GlcNAc(b1-4)[Fuc(a1-6)]GlcNAc</t>
+          <t>Fuc(a1-3)[Gal(b1-4)]GlcNAc(b1-3)[GlcNAc(b1-6)]Gal(b1-4)Glc</t>
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0.1435626945</v>
+        <v>1.495895820632794</v>
       </c>
       <c r="C37" t="n">
-        <v>2.196111397777991</v>
+        <v>1.963911736532091</v>
       </c>
       <c r="D37" t="n">
-        <v>2.196111397777991</v>
+        <v>11.90026</v>
       </c>
       <c r="E37" t="n">
-        <v>2.196111397777991</v>
+        <v>0.41</v>
       </c>
       <c r="F37" t="n">
-        <v>17.01846274261463</v>
+        <v>4.71</v>
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>N</t>
+          <t>['1C4']</t>
+        </is>
+      </c>
+      <c r="H37" t="inlineStr">
+        <is>
+          <t>['Fuc(a1-3)']</t>
+        </is>
+      </c>
+      <c r="I37" t="inlineStr">
+        <is>
+          <t>['Fuc']</t>
+        </is>
+      </c>
+      <c r="J37" t="inlineStr">
+        <is>
+          <t>lipid/free</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="1" t="inlineStr">
         <is>
-          <t>GlcNAc(b1-2)Man(a1-3)[GlcNAc(b1-2)Man(a1-6)][Xyl(b1-2)]Man(b1-4)GlcNAc(b1-4)[Fuc(a1-3)]GlcNAc</t>
+          <t>Fuc(a1-3)[GalNAc(b1-4)]GlcNAc(b1-2)Man(a1-3)[Fuc(a1-3)[GalNAc(b1-4)]GlcNAc(b1-2)Man(a1-6)]Man(b1-4)GlcNAc(b1-4)GlcNAc</t>
         </is>
       </c>
       <c r="B38" t="n">
-        <v>-0.756923457</v>
+        <v>0.8211332417562371</v>
       </c>
       <c r="C38" t="n">
-        <v>1.709611781121884</v>
+        <v>1.647726393874084</v>
       </c>
       <c r="D38" t="n">
-        <v>1.709611781121884</v>
+        <v>29.47368070140348</v>
       </c>
       <c r="E38" t="n">
-        <v>1.709611781121884</v>
+        <v>0.4375</v>
       </c>
       <c r="F38" t="n">
-        <v>12.08851386666667</v>
+        <v>8.219999999999999</v>
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t>O</t>
+          <t>['1C4', '1C4']</t>
+        </is>
+      </c>
+      <c r="H38" t="inlineStr">
+        <is>
+          <t>['Fuc(a1-3)', 'Fuc(a1-3)']</t>
+        </is>
+      </c>
+      <c r="I38" t="inlineStr">
+        <is>
+          <t>['Fuc']</t>
+        </is>
+      </c>
+      <c r="J38" t="inlineStr">
+        <is>
+          <t>N</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="1" t="inlineStr">
         <is>
-          <t>GlcNAc(b1-2)Man(a1-3)[GlcNAc(b1-2)Man(a1-6)][Xyl(b1-2)]Man(b1-4)GlcNAc(b1-4)[Fuc(a1-6)]GlcNAc</t>
+          <t>Fuc(a1-6)GlcNAc</t>
         </is>
       </c>
       <c r="B39" t="n">
-        <v>0.785268317</v>
+        <v>1.325947962658007</v>
       </c>
       <c r="C39" t="n">
-        <v>2.227839278214138</v>
+        <v>2.547107663611835</v>
       </c>
       <c r="D39" t="n">
-        <v>2.227839278214138</v>
+        <v>1.2141</v>
       </c>
       <c r="E39" t="n">
-        <v>2.227839278214138</v>
+        <v>0.488</v>
       </c>
       <c r="F39" t="n">
-        <v>19.50205842806503</v>
+        <v>1.39</v>
       </c>
       <c r="G39" t="inlineStr">
         <is>
-          <t>N</t>
+          <t>['1C4']</t>
+        </is>
+      </c>
+      <c r="H39" t="inlineStr">
+        <is>
+          <t>['Fuc(a1-6)']</t>
+        </is>
+      </c>
+      <c r="I39" t="inlineStr">
+        <is>
+          <t>['Fuc']</t>
+        </is>
+      </c>
+      <c r="J39" t="inlineStr">
+        <is>
+          <t>O</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="1" t="inlineStr">
         <is>
-          <t>GlcNAc(b1-2)Man(a1-3)[Man(a1-3)[Man(a1-6)]Man(a1-6)]Man(b1-4)GlcNAc(b1-4)[Fuc(a1-6)]GlcNAc</t>
+          <t>Gal(b1-3)[Fuc(a1-4)]GlcNAc</t>
         </is>
       </c>
       <c r="B40" t="n">
-        <v>1.179782491</v>
+        <v>0.8099813500687248</v>
       </c>
       <c r="C40" t="n">
-        <v>2.021220999601209</v>
+        <v>2.132314839689439</v>
       </c>
       <c r="D40" t="n">
-        <v>2.021220999601209</v>
+        <v>0.8014634796813008</v>
       </c>
       <c r="E40" t="n">
-        <v>2.021220999601209</v>
+        <v>0.475</v>
       </c>
       <c r="F40" t="n">
-        <v>29.55949555044496</v>
+        <v>8.470000000000001</v>
       </c>
       <c r="G40" t="inlineStr">
         <is>
-          <t>N</t>
+          <t>['1C4']</t>
+        </is>
+      </c>
+      <c r="H40" t="inlineStr">
+        <is>
+          <t>['Fuc(a1-4)']</t>
+        </is>
+      </c>
+      <c r="I40" t="inlineStr">
+        <is>
+          <t>['Fuc']</t>
+        </is>
+      </c>
+      <c r="J40" t="inlineStr">
+        <is>
+          <t>O</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="1" t="inlineStr">
         <is>
-          <t>GlcNAc(b1-3)Fuc</t>
+          <t>Gal(b1-3)[Fuc(a1-4)]GlcNAc(b1-3)Gal</t>
         </is>
       </c>
       <c r="B41" t="n">
-        <v>1.782290507333333</v>
+        <v>1.544706266590275</v>
       </c>
       <c r="C41" t="n">
-        <v>1.986463989616981</v>
+        <v>2.057713565502089</v>
       </c>
       <c r="D41" t="n">
-        <v>1.986463989616981</v>
+        <v>2.80796</v>
       </c>
       <c r="E41" t="n">
-        <v>1.986463989616981</v>
+        <v>0.429</v>
       </c>
       <c r="F41" t="n">
-        <v>0.2711967803219664</v>
+        <v>6.61</v>
       </c>
       <c r="G41" t="inlineStr">
+        <is>
+          <t>['1C4']</t>
+        </is>
+      </c>
+      <c r="H41" t="inlineStr">
+        <is>
+          <t>['Fuc(a1-4)']</t>
+        </is>
+      </c>
+      <c r="I41" t="inlineStr">
+        <is>
+          <t>['Fuc']</t>
+        </is>
+      </c>
+      <c r="J41" t="inlineStr">
         <is>
           <t>O</t>
         </is>
@@ -1553,79 +2164,124 @@
     <row r="42">
       <c r="A42" s="1" t="inlineStr">
         <is>
-          <t>GlcNAc(b1-4)[Fuc(a1-6)]GlcNAc</t>
+          <t>Gal(b1-3)[Fuc(a1-4)]GlcNAc(b1-3)Gal(b1-4)Glc</t>
         </is>
       </c>
       <c r="B42" t="n">
-        <v>2.282181804</v>
+        <v>-0.5740194040058448</v>
       </c>
       <c r="C42" t="n">
-        <v>2.324045455484034</v>
+        <v>2.030365137387976</v>
       </c>
       <c r="D42" t="n">
-        <v>2.324045455484034</v>
+        <v>5.810491049104911</v>
       </c>
       <c r="E42" t="n">
-        <v>2.324045455484034</v>
+        <v>0.442</v>
       </c>
       <c r="F42" t="n">
-        <v>2.108746819999999</v>
+        <v>5.28</v>
       </c>
       <c r="G42" t="inlineStr">
         <is>
-          <t>N</t>
+          <t>['1C4']</t>
+        </is>
+      </c>
+      <c r="H42" t="inlineStr">
+        <is>
+          <t>['Fuc(a1-4)']</t>
+        </is>
+      </c>
+      <c r="I42" t="inlineStr">
+        <is>
+          <t>['Fuc']</t>
+        </is>
+      </c>
+      <c r="J42" t="inlineStr">
+        <is>
+          <t>lipid/free</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="1" t="inlineStr">
         <is>
-          <t>Man(a1-3)[Man(a1-6)]Man(b1-4)GlcNAc(b1-4)[Fuc(a1-3)][Fuc(a1-6)]GlcNAc</t>
+          <t>Gal(b1-3)[Fuc(a1-4)]GlcNAc(b1-3)Gal(b1-4)[Fuc(a1-3)]Glc</t>
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0.891766033</v>
+        <v>-0.6809076252334654</v>
       </c>
       <c r="C43" t="n">
-        <v>1.956884726075177</v>
+        <v>2.005647536563297</v>
       </c>
       <c r="D43" t="n">
-        <v>2.079379282960139</v>
+        <v>5.078409999999999</v>
       </c>
       <c r="E43" t="n">
-        <v>3.913769452150354</v>
+        <v>0.448</v>
       </c>
       <c r="F43" t="n">
-        <v>12.52359855485548</v>
+        <v>6.734999999999999</v>
       </c>
       <c r="G43" t="inlineStr">
         <is>
-          <t>N</t>
+          <t>['1C4', '1C4']</t>
+        </is>
+      </c>
+      <c r="H43" t="inlineStr">
+        <is>
+          <t>['Fuc(a1-4)', 'Fuc(a1-3)']</t>
+        </is>
+      </c>
+      <c r="I43" t="inlineStr">
+        <is>
+          <t>['Fuc']</t>
+        </is>
+      </c>
+      <c r="J43" t="inlineStr">
+        <is>
+          <t>lipid/free</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="1" t="inlineStr">
         <is>
-          <t>Man(b1-4)GlcNAc(b1-4)[Fuc(a1-6)]GlcNAc</t>
+          <t>Gal(b1-4)GlcNAc(b1-2)Man(a1-3)[Fuc(a1-3)[Gal(b1-4)]GlcNAc(b1-2)Man(a1-6)]Man(b1-4)GlcNAc(b1-4)GlcNAc</t>
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2.871861402</v>
+        <v>1.088059079993962</v>
       </c>
       <c r="C44" t="n">
-        <v>2.091318093705922</v>
+        <v>1.56490231353927</v>
       </c>
       <c r="D44" t="n">
-        <v>2.091318093705922</v>
+        <v>41.69395</v>
       </c>
       <c r="E44" t="n">
-        <v>2.091318093705922</v>
+        <v>0.477</v>
       </c>
       <c r="F44" t="n">
-        <v>5.061231499999998</v>
+        <v>4</v>
       </c>
       <c r="G44" t="inlineStr">
+        <is>
+          <t>['1C4']</t>
+        </is>
+      </c>
+      <c r="H44" t="inlineStr">
+        <is>
+          <t>['Fuc(a1-3)']</t>
+        </is>
+      </c>
+      <c r="I44" t="inlineStr">
+        <is>
+          <t>['Fuc']</t>
+        </is>
+      </c>
+      <c r="J44" t="inlineStr">
         <is>
           <t>N</t>
         </is>
@@ -1634,52 +2290,82 @@
     <row r="45">
       <c r="A45" s="1" t="inlineStr">
         <is>
-          <t>Neu5Ac(a2-3)Gal(b1-3)[Fuc(a1-4)]GlcNAc</t>
+          <t>Gal(b1-4)GlcNAc(b1-2)Man(a1-3)[Gal(b1-4)GlcNAc(b1-2)Man(a1-6)]Man(b1-4)GlcNAc(b1-4)[Fuc(a1-3)][Fuc(a1-6)]GlcNAc</t>
         </is>
       </c>
       <c r="B45" t="n">
-        <v>0.7640217545000001</v>
+        <v>0.4266190671329516</v>
       </c>
       <c r="C45" t="n">
-        <v>1.993078126869602</v>
+        <v>1.664693174984509</v>
       </c>
       <c r="D45" t="n">
-        <v>1.993078126869602</v>
+        <v>21.6215</v>
       </c>
       <c r="E45" t="n">
-        <v>1.993078126869602</v>
+        <v>0.4725</v>
       </c>
       <c r="F45" t="n">
-        <v>3.604707245724574</v>
+        <v>5.4</v>
       </c>
       <c r="G45" t="inlineStr">
         <is>
-          <t>O</t>
+          <t>['1C4', '1C4']</t>
+        </is>
+      </c>
+      <c r="H45" t="inlineStr">
+        <is>
+          <t>['Fuc(a1-3)', 'Fuc(a1-6)']</t>
+        </is>
+      </c>
+      <c r="I45" t="inlineStr">
+        <is>
+          <t>['Fuc']</t>
+        </is>
+      </c>
+      <c r="J45" t="inlineStr">
+        <is>
+          <t>N</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="1" t="inlineStr">
         <is>
-          <t>Neu5Ac(a2-3)Gal(b1-4)GlcNAc(b1-2)Man(a1-3)[Neu5Ac(a2-3)Gal(b1-4)GlcNAc(b1-2)Man(a1-6)]Man(b1-4)GlcNAc(b1-4)[Fuc(a1-6)]GlcNAc</t>
+          <t>Gal(b1-4)GlcNAc(b1-2)Man(a1-3)[Gal(b1-4)GlcNAc(b1-2)Man(a1-6)]Man(b1-4)GlcNAc(b1-4)[Fuc(a1-6)]GlcNAc</t>
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0.9171362446666667</v>
+        <v>0.1922836185148258</v>
       </c>
       <c r="C46" t="n">
-        <v>1.680493591656133</v>
+        <v>1.656675648076949</v>
       </c>
       <c r="D46" t="n">
-        <v>1.680493591656133</v>
+        <v>24.5925</v>
       </c>
       <c r="E46" t="n">
-        <v>1.680493591656133</v>
+        <v>0.432</v>
       </c>
       <c r="F46" t="n">
-        <v>14.12716278372164</v>
+        <v>15.59</v>
       </c>
       <c r="G46" t="inlineStr">
+        <is>
+          <t>['1C4']</t>
+        </is>
+      </c>
+      <c r="H46" t="inlineStr">
+        <is>
+          <t>['Fuc(a1-6)']</t>
+        </is>
+      </c>
+      <c r="I46" t="inlineStr">
+        <is>
+          <t>['Fuc']</t>
+        </is>
+      </c>
+      <c r="J46" t="inlineStr">
         <is>
           <t>N</t>
         </is>
@@ -1688,106 +2374,166 @@
     <row r="47">
       <c r="A47" s="1" t="inlineStr">
         <is>
-          <t>Neu5Ac(a2-3)Gal(b1-4)[Fuc(a1-3)]GlcNAc</t>
+          <t>Gal(b1-4)GlcNAc(b1-2)Man(a1-3)[GlcNAc(b1-2)Man(a1-6)]Man(b1-4)GlcNAc(b1-4)[Fuc(a1-6)]GlcNAc</t>
         </is>
       </c>
       <c r="B47" t="n">
-        <v>0.6823899394999999</v>
+        <v>0.5131430124379484</v>
       </c>
       <c r="C47" t="n">
-        <v>1.918932847975427</v>
+        <v>2.032631731546139</v>
       </c>
       <c r="D47" t="n">
-        <v>1.918932847975427</v>
+        <v>17.06189381061894</v>
       </c>
       <c r="E47" t="n">
-        <v>1.918932847975427</v>
+        <v>0.471</v>
       </c>
       <c r="F47" t="n">
-        <v>1.415934280000001</v>
+        <v>4.38</v>
       </c>
       <c r="G47" t="inlineStr">
         <is>
-          <t>O</t>
+          <t>['1C4']</t>
+        </is>
+      </c>
+      <c r="H47" t="inlineStr">
+        <is>
+          <t>['Fuc(a1-6)']</t>
+        </is>
+      </c>
+      <c r="I47" t="inlineStr">
+        <is>
+          <t>['Fuc']</t>
+        </is>
+      </c>
+      <c r="J47" t="inlineStr">
+        <is>
+          <t>N</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="1" t="inlineStr">
         <is>
-          <t>Neu5Ac(a2-3)Gal(b1-4)[Fuc(a1-3)]GlcNAc(b1-2)Man</t>
+          <t>Gal(b1-4)GlcNAc(b1-2)Man(a1-6)[GlcNAc(b1-2)Man(a1-3)]Man(b1-4)GlcNAc(b1-4)[Fuc(a1-6)]GlcNAc</t>
         </is>
       </c>
       <c r="B48" t="n">
-        <v>0.3399763656666667</v>
+        <v>1.510697637084839</v>
       </c>
       <c r="C48" t="n">
-        <v>1.926965893336286</v>
+        <v>1.949736047171382</v>
       </c>
       <c r="D48" t="n">
-        <v>1.926965893336286</v>
+        <v>14.62466666666667</v>
       </c>
       <c r="E48" t="n">
-        <v>1.926965893336286</v>
+        <v>0.464</v>
       </c>
       <c r="F48" t="n">
-        <v>3.091470333333334</v>
+        <v>1.98</v>
       </c>
       <c r="G48" t="inlineStr">
         <is>
-          <t>O</t>
+          <t>['1C4']</t>
+        </is>
+      </c>
+      <c r="H48" t="inlineStr">
+        <is>
+          <t>['Fuc(a1-6)']</t>
+        </is>
+      </c>
+      <c r="I48" t="inlineStr">
+        <is>
+          <t>['Fuc']</t>
+        </is>
+      </c>
+      <c r="J48" t="inlineStr">
+        <is>
+          <t>N</t>
         </is>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="1" t="inlineStr">
         <is>
-          <t>Neu5Ac(a2-3)Gal(b1-4)[Fuc(a1-3)]GlcNAc(b1-6)[Neu5Ac(a2-3)Gal(b1-3)]GalNAc</t>
+          <t>Gal(b1-4)GlcNAc(b1-2)[Gal(b1-4)GlcNAc(b1-4)]Man(a1-3)[Gal(b1-4)GlcNAc(b1-2)[Gal(b1-4)GlcNAc(b1-6)]Man(a1-6)]Man(b1-4)GlcNAc(b1-4)[Fuc(a1-6)]GlcNAc</t>
         </is>
       </c>
       <c r="B49" t="n">
-        <v>-0.17504563425</v>
+        <v>0.9503900955894896</v>
       </c>
       <c r="C49" t="n">
-        <v>1.891745430477016</v>
+        <v>1.66530716417993</v>
       </c>
       <c r="D49" t="n">
-        <v>1.891745430477016</v>
+        <v>35.6324</v>
       </c>
       <c r="E49" t="n">
-        <v>1.891745430477016</v>
+        <v>0.452</v>
       </c>
       <c r="F49" t="n">
-        <v>11.15615455545555</v>
+        <v>13.92</v>
       </c>
       <c r="G49" t="inlineStr">
         <is>
-          <t>O</t>
+          <t>['1C4']</t>
+        </is>
+      </c>
+      <c r="H49" t="inlineStr">
+        <is>
+          <t>['Fuc(a1-6)']</t>
+        </is>
+      </c>
+      <c r="I49" t="inlineStr">
+        <is>
+          <t>['Fuc']</t>
+        </is>
+      </c>
+      <c r="J49" t="inlineStr">
+        <is>
+          <t>N</t>
         </is>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="1" t="inlineStr">
         <is>
-          <t>Neu5Ac(a2-6)Gal(b1-4)GlcNAc(b1-2)Man(a1-3)[Neu5Ac(a2-6)Gal(b1-4)GlcNAc(b1-2)Man(a1-6)]Man(b1-4)GlcNAc(b1-4)[Fuc(a1-6)]GlcNAc</t>
+          <t>GlcNAc(b1-2)Man(a1-3)Man(b1-4)GlcNAc(b1-4)[Fuc(a1-6)]GlcNAc</t>
         </is>
       </c>
       <c r="B50" t="n">
-        <v>1.428541118333333</v>
+        <v>1.214810581083091</v>
       </c>
       <c r="C50" t="n">
-        <v>1.824471573310253</v>
+        <v>2.386004558665317</v>
       </c>
       <c r="D50" t="n">
-        <v>1.824471573310253</v>
+        <v>9.150500000000001</v>
       </c>
       <c r="E50" t="n">
-        <v>1.824471573310253</v>
+        <v>0.513</v>
       </c>
       <c r="F50" t="n">
-        <v>30.477533775</v>
+        <v>10.76</v>
       </c>
       <c r="G50" t="inlineStr">
+        <is>
+          <t>['1C4']</t>
+        </is>
+      </c>
+      <c r="H50" t="inlineStr">
+        <is>
+          <t>['Fuc(a1-6)']</t>
+        </is>
+      </c>
+      <c r="I50" t="inlineStr">
+        <is>
+          <t>['Fuc']</t>
+        </is>
+      </c>
+      <c r="J50" t="inlineStr">
         <is>
           <t>N</t>
         </is>
@@ -1796,25 +2542,40 @@
     <row r="51">
       <c r="A51" s="1" t="inlineStr">
         <is>
-          <t>Neu5Gc(a2-3)Gal(b1-3)[Fuc(a1-4)]GlcNAc</t>
+          <t>GlcNAc(b1-2)Man(a1-3)[GlcNAc(b1-2)Man(a1-6)]Man(b1-4)GlcNAc(b1-4)[Fuc(a1-3)]GlcNAc</t>
         </is>
       </c>
       <c r="B51" t="n">
-        <v>0.3721878165</v>
+        <v>-0.664807803591709</v>
       </c>
       <c r="C51" t="n">
-        <v>1.882777586818324</v>
+        <v>1.568277264894773</v>
       </c>
       <c r="D51" t="n">
-        <v>1.882777586818324</v>
+        <v>8.331333133313331</v>
       </c>
       <c r="E51" t="n">
-        <v>1.882777586818324</v>
+        <v>0.523</v>
       </c>
       <c r="F51" t="n">
-        <v>2.181886268626866</v>
+        <v>6.44</v>
       </c>
       <c r="G51" t="inlineStr">
+        <is>
+          <t>['1C4']</t>
+        </is>
+      </c>
+      <c r="H51" t="inlineStr">
+        <is>
+          <t>['Fuc(a1-3)']</t>
+        </is>
+      </c>
+      <c r="I51" t="inlineStr">
+        <is>
+          <t>['Fuc']</t>
+        </is>
+      </c>
+      <c r="J51" t="inlineStr">
         <is>
           <t>O</t>
         </is>
@@ -1823,27 +2584,1008 @@
     <row r="52">
       <c r="A52" s="1" t="inlineStr">
         <is>
+          <t>GlcNAc(b1-2)Man(a1-3)[GlcNAc(b1-2)Man(a1-6)]Man(b1-4)GlcNAc(b1-4)[Fuc(a1-6)]GlcNAc</t>
+        </is>
+      </c>
+      <c r="B52" t="n">
+        <v>0.1435626945766666</v>
+      </c>
+      <c r="C52" t="n">
+        <v>2.196111397777991</v>
+      </c>
+      <c r="D52" t="n">
+        <v>16.7310602273106</v>
+      </c>
+      <c r="E52" t="n">
+        <v>0.487</v>
+      </c>
+      <c r="F52" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>['1C4']</t>
+        </is>
+      </c>
+      <c r="H52" t="inlineStr">
+        <is>
+          <t>['Fuc(a1-6)']</t>
+        </is>
+      </c>
+      <c r="I52" t="inlineStr">
+        <is>
+          <t>['Fuc']</t>
+        </is>
+      </c>
+      <c r="J52" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="1" t="inlineStr">
+        <is>
+          <t>GlcNAc(b1-2)Man(a1-3)[GlcNAc(b1-2)Man(a1-6)][Xyl(b1-2)]Man(b1-4)GlcNAc(b1-4)[Fuc(a1-3)]GlcNAc</t>
+        </is>
+      </c>
+      <c r="B53" t="n">
+        <v>-0.7569234567369049</v>
+      </c>
+      <c r="C53" t="n">
+        <v>1.709611781121884</v>
+      </c>
+      <c r="D53" t="n">
+        <v>11.21113333333333</v>
+      </c>
+      <c r="E53" t="n">
+        <v>0.466</v>
+      </c>
+      <c r="F53" t="n">
+        <v>4.88</v>
+      </c>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t>['1C4']</t>
+        </is>
+      </c>
+      <c r="H53" t="inlineStr">
+        <is>
+          <t>['Fuc(a1-3)']</t>
+        </is>
+      </c>
+      <c r="I53" t="inlineStr">
+        <is>
+          <t>['Fuc']</t>
+        </is>
+      </c>
+      <c r="J53" t="inlineStr">
+        <is>
+          <t>O</t>
+        </is>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="1" t="inlineStr">
+        <is>
+          <t>GlcNAc(b1-2)Man(a1-3)[GlcNAc(b1-2)Man(a1-6)][Xyl(b1-2)]Man(b1-4)GlcNAc(b1-4)[Fuc(a1-6)]GlcNAc</t>
+        </is>
+      </c>
+      <c r="B54" t="n">
+        <v>0.7852683167904839</v>
+      </c>
+      <c r="C54" t="n">
+        <v>2.227839278214138</v>
+      </c>
+      <c r="D54" t="n">
+        <v>20.25834805702793</v>
+      </c>
+      <c r="E54" t="n">
+        <v>0.49</v>
+      </c>
+      <c r="F54" t="n">
+        <v>3.41</v>
+      </c>
+      <c r="G54" t="inlineStr">
+        <is>
+          <t>['1C4']</t>
+        </is>
+      </c>
+      <c r="H54" t="inlineStr">
+        <is>
+          <t>['Fuc(a1-6)']</t>
+        </is>
+      </c>
+      <c r="I54" t="inlineStr">
+        <is>
+          <t>['Fuc']</t>
+        </is>
+      </c>
+      <c r="J54" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="1" t="inlineStr">
+        <is>
+          <t>GlcNAc(b1-2)Man(a1-3)[GlcNAc(b1-2)[GlcNAc(b1-6)]Man(a1-6)]Man(b1-4)GlcNAc(b1-4)[Fuc(a1-6)]GlcNAc</t>
+        </is>
+      </c>
+      <c r="B55" t="n">
+        <v>1.374727351631428</v>
+      </c>
+      <c r="C55" t="n">
+        <v>2.225995912439446</v>
+      </c>
+      <c r="D55" t="n">
+        <v>19.03764285714286</v>
+      </c>
+      <c r="E55" t="n">
+        <v>0.483</v>
+      </c>
+      <c r="F55" t="n">
+        <v>9.17</v>
+      </c>
+      <c r="G55" t="inlineStr">
+        <is>
+          <t>['1C4']</t>
+        </is>
+      </c>
+      <c r="H55" t="inlineStr">
+        <is>
+          <t>['Fuc(a1-6)']</t>
+        </is>
+      </c>
+      <c r="I55" t="inlineStr">
+        <is>
+          <t>['Fuc']</t>
+        </is>
+      </c>
+      <c r="J55" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="1" t="inlineStr">
+        <is>
+          <t>GlcNAc(b1-2)Man(a1-3)[Man(a1-3)[Man(a1-6)]Man(a1-6)]Man(b1-4)GlcNAc(b1-4)[Fuc(a1-6)]GlcNAc</t>
+        </is>
+      </c>
+      <c r="B56" t="n">
+        <v>1.179782491413769</v>
+      </c>
+      <c r="C56" t="n">
+        <v>2.021220999601209</v>
+      </c>
+      <c r="D56" t="n">
+        <v>29.45521697830217</v>
+      </c>
+      <c r="E56" t="n">
+        <v>0.436</v>
+      </c>
+      <c r="F56" t="n">
+        <v>8.300000000000001</v>
+      </c>
+      <c r="G56" t="inlineStr">
+        <is>
+          <t>['1C4']</t>
+        </is>
+      </c>
+      <c r="H56" t="inlineStr">
+        <is>
+          <t>['Fuc(a1-6)']</t>
+        </is>
+      </c>
+      <c r="I56" t="inlineStr">
+        <is>
+          <t>['Fuc']</t>
+        </is>
+      </c>
+      <c r="J56" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="1" t="inlineStr">
+        <is>
+          <t>GlcNAc(b1-3)Fuc</t>
+        </is>
+      </c>
+      <c r="B57" t="n">
+        <v>1.782290507702308</v>
+      </c>
+      <c r="C57" t="n">
+        <v>2.035997174386668</v>
+      </c>
+      <c r="D57" t="n">
+        <v>0.4274822517748225</v>
+      </c>
+      <c r="E57" t="n">
+        <v>0.499</v>
+      </c>
+      <c r="F57" t="n">
+        <v>5.04</v>
+      </c>
+      <c r="G57" t="inlineStr">
+        <is>
+          <t>['1C4']</t>
+        </is>
+      </c>
+      <c r="H57" t="inlineStr">
+        <is>
+          <t>['Fuc(a1-1)']</t>
+        </is>
+      </c>
+      <c r="I57" t="inlineStr">
+        <is>
+          <t>['Fuc']</t>
+        </is>
+      </c>
+      <c r="J57" t="inlineStr">
+        <is>
+          <t>O</t>
+        </is>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="1" t="inlineStr">
+        <is>
+          <t>GlcNAc(b1-4)[Fuc(a1-6)]GlcNAc</t>
+        </is>
+      </c>
+      <c r="B58" t="n">
+        <v>2.282181804469791</v>
+      </c>
+      <c r="C58" t="n">
+        <v>2.324045455484034</v>
+      </c>
+      <c r="D58" t="n">
+        <v>2.18288</v>
+      </c>
+      <c r="E58" t="n">
+        <v>0.446</v>
+      </c>
+      <c r="F58" t="n">
+        <v>8.470000000000001</v>
+      </c>
+      <c r="G58" t="inlineStr">
+        <is>
+          <t>['1C4']</t>
+        </is>
+      </c>
+      <c r="H58" t="inlineStr">
+        <is>
+          <t>['Fuc(a1-6)']</t>
+        </is>
+      </c>
+      <c r="I58" t="inlineStr">
+        <is>
+          <t>['Fuc']</t>
+        </is>
+      </c>
+      <c r="J58" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="1" t="inlineStr">
+        <is>
+          <t>Man(a1-3)[Man(a1-6)]Man(b1-4)GlcNAc(b1-4)[Fuc(a1-3)][Fuc(a1-6)]GlcNAc</t>
+        </is>
+      </c>
+      <c r="B59" t="n">
+        <v>0.8917660331798192</v>
+      </c>
+      <c r="C59" t="n">
+        <v>1.956884726075177</v>
+      </c>
+      <c r="D59" t="n">
+        <v>12.5056405640564</v>
+      </c>
+      <c r="E59" t="n">
+        <v>0.4395</v>
+      </c>
+      <c r="F59" t="n">
+        <v>13.37</v>
+      </c>
+      <c r="G59" t="inlineStr">
+        <is>
+          <t>['1C4', '1C4']</t>
+        </is>
+      </c>
+      <c r="H59" t="inlineStr">
+        <is>
+          <t>['Fuc(a1-3)', 'Fuc(a1-6)']</t>
+        </is>
+      </c>
+      <c r="I59" t="inlineStr">
+        <is>
+          <t>['Fuc']</t>
+        </is>
+      </c>
+      <c r="J59" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="1" t="inlineStr">
+        <is>
+          <t>Man(a1-3)[Man(a1-6)]Man(b1-4)GlcNAc(b1-4)[Fuc(a1-6)]GlcNAc</t>
+        </is>
+      </c>
+      <c r="B60" t="n">
+        <v>0.9525982063457764</v>
+      </c>
+      <c r="C60" t="n">
+        <v>2.29808814603166</v>
+      </c>
+      <c r="D60" t="n">
+        <v>8.503333333333334</v>
+      </c>
+      <c r="E60" t="n">
+        <v>0.518</v>
+      </c>
+      <c r="F60" t="n">
+        <v>6.9</v>
+      </c>
+      <c r="G60" t="inlineStr">
+        <is>
+          <t>['1C4']</t>
+        </is>
+      </c>
+      <c r="H60" t="inlineStr">
+        <is>
+          <t>['Fuc(a1-6)']</t>
+        </is>
+      </c>
+      <c r="I60" t="inlineStr">
+        <is>
+          <t>['Fuc']</t>
+        </is>
+      </c>
+      <c r="J60" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="1" t="inlineStr">
+        <is>
+          <t>Man(b1-4)GlcNAc(b1-4)[Fuc(a1-6)]GlcNAc</t>
+        </is>
+      </c>
+      <c r="B61" t="n">
+        <v>2.871861401813738</v>
+      </c>
+      <c r="C61" t="n">
+        <v>2.091318093705922</v>
+      </c>
+      <c r="D61" t="n">
+        <v>5.3316</v>
+      </c>
+      <c r="E61" t="n">
+        <v>0.434</v>
+      </c>
+      <c r="F61" t="n">
+        <v>5.28</v>
+      </c>
+      <c r="G61" t="inlineStr">
+        <is>
+          <t>['1C4']</t>
+        </is>
+      </c>
+      <c r="H61" t="inlineStr">
+        <is>
+          <t>['Fuc(a1-6)']</t>
+        </is>
+      </c>
+      <c r="I61" t="inlineStr">
+        <is>
+          <t>['Fuc']</t>
+        </is>
+      </c>
+      <c r="J61" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="1" t="inlineStr">
+        <is>
+          <t>Neu5Ac(a2-3)Gal(b1-3)[Fuc(a1-4)]GlcNAc</t>
+        </is>
+      </c>
+      <c r="B62" t="n">
+        <v>0.7640217547703385</v>
+      </c>
+      <c r="C62" t="n">
+        <v>1.993078126869602</v>
+      </c>
+      <c r="D62" t="n">
+        <v>4.196894689468947</v>
+      </c>
+      <c r="E62" t="n">
+        <v>0.458</v>
+      </c>
+      <c r="F62" t="n">
+        <v>11.4</v>
+      </c>
+      <c r="G62" t="inlineStr">
+        <is>
+          <t>['1C4']</t>
+        </is>
+      </c>
+      <c r="H62" t="inlineStr">
+        <is>
+          <t>['Fuc(a1-4)']</t>
+        </is>
+      </c>
+      <c r="I62" t="inlineStr">
+        <is>
+          <t>['Fuc']</t>
+        </is>
+      </c>
+      <c r="J62" t="inlineStr">
+        <is>
+          <t>O</t>
+        </is>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="1" t="inlineStr">
+        <is>
+          <t>Neu5Ac(a2-3)Gal(b1-4)GlcNAc(b1-2)Man(a1-3)[Neu5Ac(a2-3)Gal(b1-4)GlcNAc(b1-2)Man(a1-6)]Man(b1-4)GlcNAc(b1-4)[Fuc(a1-6)]GlcNAc</t>
+        </is>
+      </c>
+      <c r="B63" t="n">
+        <v>0.91713624477097</v>
+      </c>
+      <c r="C63" t="n">
+        <v>1.680493591656133</v>
+      </c>
+      <c r="D63" t="n">
+        <v>14.01643169016431</v>
+      </c>
+      <c r="E63" t="n">
+        <v>0.496</v>
+      </c>
+      <c r="F63" t="n">
+        <v>3.52</v>
+      </c>
+      <c r="G63" t="inlineStr">
+        <is>
+          <t>['1C4']</t>
+        </is>
+      </c>
+      <c r="H63" t="inlineStr">
+        <is>
+          <t>['Fuc(a1-6)']</t>
+        </is>
+      </c>
+      <c r="I63" t="inlineStr">
+        <is>
+          <t>['Fuc']</t>
+        </is>
+      </c>
+      <c r="J63" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="1" t="inlineStr">
+        <is>
+          <t>Neu5Ac(a2-3)Gal(b1-4)GlcNAc(b1-2)Man(a1-6)[Gal(b1-4)GlcNAc(b1-2)Man(a1-3)]Man(b1-4)GlcNAc(b1-4)[Fuc(a1-6)]GlcNAc</t>
+        </is>
+      </c>
+      <c r="B64" t="n">
+        <v>0.7097028782192641</v>
+      </c>
+      <c r="C64" t="n">
+        <v>1.680813687621337</v>
+      </c>
+      <c r="D64" t="n">
+        <v>21.32665</v>
+      </c>
+      <c r="E64" t="n">
+        <v>0.463</v>
+      </c>
+      <c r="F64" t="n">
+        <v>5.27</v>
+      </c>
+      <c r="G64" t="inlineStr">
+        <is>
+          <t>['1C4']</t>
+        </is>
+      </c>
+      <c r="H64" t="inlineStr">
+        <is>
+          <t>['Fuc(a1-6)']</t>
+        </is>
+      </c>
+      <c r="I64" t="inlineStr">
+        <is>
+          <t>['Fuc']</t>
+        </is>
+      </c>
+      <c r="J64" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="1" t="inlineStr">
+        <is>
+          <t>Neu5Ac(a2-3)Gal(b1-4)GlcNAc(b1-2)[Neu5Ac(a2-3)Gal(b1-4)GlcNAc(b1-4)]Man(a1-3)[Neu5Ac(a2-3)Gal(b1-4)GlcNAc(b1-2)[Neu5Ac(a2-3)Gal(b1-4)GlcNAc(b1-6)]Man(a1-6)]Man(b1-4)GlcNAc(b1-4)[Fuc(a1-6)]GlcNAc</t>
+        </is>
+      </c>
+      <c r="B65" t="n">
+        <v>0.4006836804437834</v>
+      </c>
+      <c r="C65" t="n">
+        <v>1.61872658599565</v>
+      </c>
+      <c r="D65" t="n">
+        <v>61.2</v>
+      </c>
+      <c r="E65" t="n">
+        <v>0.415</v>
+      </c>
+      <c r="F65" t="n">
+        <v>4.56</v>
+      </c>
+      <c r="G65" t="inlineStr">
+        <is>
+          <t>['1C4']</t>
+        </is>
+      </c>
+      <c r="H65" t="inlineStr">
+        <is>
+          <t>['Fuc(a1-6)']</t>
+        </is>
+      </c>
+      <c r="I65" t="inlineStr">
+        <is>
+          <t>['Fuc']</t>
+        </is>
+      </c>
+      <c r="J65" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="1" t="inlineStr">
+        <is>
+          <t>Neu5Ac(a2-3)Gal(b1-4)[Fuc(a1-3)]GlcNAc</t>
+        </is>
+      </c>
+      <c r="B66" t="n">
+        <v>0.6455244372192863</v>
+      </c>
+      <c r="C66" t="n">
+        <v>1.918932847975427</v>
+      </c>
+      <c r="D66" t="n">
+        <v>1.1562</v>
+      </c>
+      <c r="E66" t="n">
+        <v>0.441</v>
+      </c>
+      <c r="F66" t="n">
+        <v>9.119999999999999</v>
+      </c>
+      <c r="G66" t="inlineStr">
+        <is>
+          <t>['1C4']</t>
+        </is>
+      </c>
+      <c r="H66" t="inlineStr">
+        <is>
+          <t>['Fuc(a1-3)']</t>
+        </is>
+      </c>
+      <c r="I66" t="inlineStr">
+        <is>
+          <t>['Fuc']</t>
+        </is>
+      </c>
+      <c r="J66" t="inlineStr">
+        <is>
+          <t>O</t>
+        </is>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="1" t="inlineStr">
+        <is>
+          <t>Neu5Ac(a2-3)Gal(b1-4)[Fuc(a1-3)]GlcNAc(b1-2)Man</t>
+        </is>
+      </c>
+      <c r="B67" t="n">
+        <v>0.3399763653128765</v>
+      </c>
+      <c r="C67" t="n">
+        <v>1.926965893336286</v>
+      </c>
+      <c r="D67" t="n">
+        <v>3.5304</v>
+      </c>
+      <c r="E67" t="n">
+        <v>0.484</v>
+      </c>
+      <c r="F67" t="n">
+        <v>3.66</v>
+      </c>
+      <c r="G67" t="inlineStr">
+        <is>
+          <t>['1C4']</t>
+        </is>
+      </c>
+      <c r="H67" t="inlineStr">
+        <is>
+          <t>['Fuc(a1-3)']</t>
+        </is>
+      </c>
+      <c r="I67" t="inlineStr">
+        <is>
+          <t>['Fuc']</t>
+        </is>
+      </c>
+      <c r="J67" t="inlineStr">
+        <is>
+          <t>O</t>
+        </is>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="1" t="inlineStr">
+        <is>
+          <t>Neu5Ac(a2-3)Gal(b1-4)[Fuc(a1-3)]GlcNAc(b1-3)Gal</t>
+        </is>
+      </c>
+      <c r="B68" t="n">
+        <v>1.361444313033061</v>
+      </c>
+      <c r="C68" t="n">
+        <v>2.014280116578378</v>
+      </c>
+      <c r="D68" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="E68" t="n">
+        <v>0.462</v>
+      </c>
+      <c r="F68" t="n">
+        <v>3.45</v>
+      </c>
+      <c r="G68" t="inlineStr">
+        <is>
+          <t>['1C4']</t>
+        </is>
+      </c>
+      <c r="H68" t="inlineStr">
+        <is>
+          <t>['Fuc(a1-3)']</t>
+        </is>
+      </c>
+      <c r="I68" t="inlineStr">
+        <is>
+          <t>['Fuc']</t>
+        </is>
+      </c>
+      <c r="J68" t="inlineStr">
+        <is>
+          <t>O</t>
+        </is>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="1" t="inlineStr">
+        <is>
+          <t>Neu5Ac(a2-3)Gal(b1-4)[Fuc(a1-3)]GlcNAc(b1-6)[Gal(b1-3)]GalNAc</t>
+        </is>
+      </c>
+      <c r="B69" t="n">
+        <v>-0.2022537192311969</v>
+      </c>
+      <c r="C69" t="n">
+        <v>1.863648695406777</v>
+      </c>
+      <c r="D69" t="n">
+        <v>8.882480000000001</v>
+      </c>
+      <c r="E69" t="n">
+        <v>0.461</v>
+      </c>
+      <c r="F69" t="n">
+        <v>10.79</v>
+      </c>
+      <c r="G69" t="inlineStr">
+        <is>
+          <t>['1C4']</t>
+        </is>
+      </c>
+      <c r="H69" t="inlineStr">
+        <is>
+          <t>['Fuc(a1-3)']</t>
+        </is>
+      </c>
+      <c r="I69" t="inlineStr">
+        <is>
+          <t>['Fuc']</t>
+        </is>
+      </c>
+      <c r="J69" t="inlineStr">
+        <is>
+          <t>O</t>
+        </is>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" s="1" t="inlineStr">
+        <is>
+          <t>Neu5Ac(a2-3)Gal(b1-4)[Fuc(a1-3)]GlcNAc(b1-6)[Neu5Ac(a2-3)Gal(b1-3)]GalNAc</t>
+        </is>
+      </c>
+      <c r="B70" t="n">
+        <v>-0.1750456342778473</v>
+      </c>
+      <c r="C70" t="n">
+        <v>1.891745430477016</v>
+      </c>
+      <c r="D70" t="n">
+        <v>10.48654865486549</v>
+      </c>
+      <c r="E70" t="n">
+        <v>0.416</v>
+      </c>
+      <c r="F70" t="n">
+        <v>5.28</v>
+      </c>
+      <c r="G70" t="inlineStr">
+        <is>
+          <t>['1C4']</t>
+        </is>
+      </c>
+      <c r="H70" t="inlineStr">
+        <is>
+          <t>['Fuc(a1-3)']</t>
+        </is>
+      </c>
+      <c r="I70" t="inlineStr">
+        <is>
+          <t>['Fuc']</t>
+        </is>
+      </c>
+      <c r="J70" t="inlineStr">
+        <is>
+          <t>O</t>
+        </is>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" s="1" t="inlineStr">
+        <is>
+          <t>Neu5Ac(a2-6)Gal(b1-4)GlcNAc(b1-2)Man(a1-3)[Neu5Ac(a2-6)Gal(b1-4)GlcNAc(b1-2)Man(a1-6)]Man(b1-4)GlcNAc(b1-4)[Fuc(a1-6)]GlcNAc</t>
+        </is>
+      </c>
+      <c r="B71" t="n">
+        <v>1.428541118178565</v>
+      </c>
+      <c r="C71" t="n">
+        <v>1.824471573310253</v>
+      </c>
+      <c r="D71" t="n">
+        <v>30.481875</v>
+      </c>
+      <c r="E71" t="n">
+        <v>0.424</v>
+      </c>
+      <c r="F71" t="n">
+        <v>7.79</v>
+      </c>
+      <c r="G71" t="inlineStr">
+        <is>
+          <t>['1C4']</t>
+        </is>
+      </c>
+      <c r="H71" t="inlineStr">
+        <is>
+          <t>['Fuc(a1-6)']</t>
+        </is>
+      </c>
+      <c r="I71" t="inlineStr">
+        <is>
+          <t>['Fuc']</t>
+        </is>
+      </c>
+      <c r="J71" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" s="1" t="inlineStr">
+        <is>
+          <t>Neu5Gc(a2-3)Gal(b1-3)[Fuc(a1-4)]GlcNAc</t>
+        </is>
+      </c>
+      <c r="B72" t="n">
+        <v>0.3721878163461504</v>
+      </c>
+      <c r="C72" t="n">
+        <v>1.882777586818324</v>
+      </c>
+      <c r="D72" t="n">
+        <v>2.750555055505551</v>
+      </c>
+      <c r="E72" t="n">
+        <v>0.467</v>
+      </c>
+      <c r="F72" t="n">
+        <v>6.41</v>
+      </c>
+      <c r="G72" t="inlineStr">
+        <is>
+          <t>['1C4']</t>
+        </is>
+      </c>
+      <c r="H72" t="inlineStr">
+        <is>
+          <t>['Fuc(a1-4)']</t>
+        </is>
+      </c>
+      <c r="I72" t="inlineStr">
+        <is>
+          <t>['Fuc']</t>
+        </is>
+      </c>
+      <c r="J72" t="inlineStr">
+        <is>
+          <t>O</t>
+        </is>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" s="1" t="inlineStr">
+        <is>
           <t>Neu5Gc(a2-3)Gal(b1-4)[Fuc(a1-3)]GlcNAc</t>
         </is>
       </c>
-      <c r="B52" t="n">
-        <v>0.41204455675</v>
-      </c>
-      <c r="C52" t="n">
+      <c r="B73" t="n">
+        <v>0.412044556605458</v>
+      </c>
+      <c r="C73" t="n">
         <v>1.928560157079214</v>
       </c>
-      <c r="D52" t="n">
-        <v>1.928560157079214</v>
-      </c>
-      <c r="E52" t="n">
-        <v>1.928560157079214</v>
-      </c>
-      <c r="F52" t="n">
-        <v>1.88687276272373</v>
-      </c>
-      <c r="G52" t="inlineStr">
+      <c r="D73" t="n">
+        <v>2.524997500249975</v>
+      </c>
+      <c r="E73" t="n">
+        <v>0.475</v>
+      </c>
+      <c r="F73" t="n">
+        <v>4.44</v>
+      </c>
+      <c r="G73" t="inlineStr">
+        <is>
+          <t>['1C4']</t>
+        </is>
+      </c>
+      <c r="H73" t="inlineStr">
+        <is>
+          <t>['Fuc(a1-3)']</t>
+        </is>
+      </c>
+      <c r="I73" t="inlineStr">
+        <is>
+          <t>['Fuc']</t>
+        </is>
+      </c>
+      <c r="J73" t="inlineStr">
         <is>
           <t>O</t>
+        </is>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" s="1" t="inlineStr">
+        <is>
+          <t>Xyl(b1-2)[Man(a1-3)][Man(a1-6)]Man(b1-4)GlcNAc(b1-4)[Fuc(a1-3)]GlcNAc</t>
+        </is>
+      </c>
+      <c r="B74" t="n">
+        <v>-0.3363825504136707</v>
+      </c>
+      <c r="C74" t="n">
+        <v>1.878598193210197</v>
+      </c>
+      <c r="D74" t="n">
+        <v>13.41128387161284</v>
+      </c>
+      <c r="E74" t="n">
+        <v>0.432</v>
+      </c>
+      <c r="F74" t="n">
+        <v>8.42</v>
+      </c>
+      <c r="G74" t="inlineStr">
+        <is>
+          <t>['1C4']</t>
+        </is>
+      </c>
+      <c r="H74" t="inlineStr">
+        <is>
+          <t>['Fuc(a1-3)']</t>
+        </is>
+      </c>
+      <c r="I74" t="inlineStr">
+        <is>
+          <t>['Fuc']</t>
+        </is>
+      </c>
+      <c r="J74" t="inlineStr">
+        <is>
+          <t>O</t>
+        </is>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" s="1" t="inlineStr">
+        <is>
+          <t>Xyl(b1-2)[Man(a1-3)][Man(a1-6)]Man(b1-4)GlcNAc(b1-4)[Fuc(a1-3)][Fuc(a1-6)]GlcNAc</t>
+        </is>
+      </c>
+      <c r="B75" t="n">
+        <v>1.108052641482263</v>
+      </c>
+      <c r="C75" t="n">
+        <v>1.84874499367184</v>
+      </c>
+      <c r="D75" t="n">
+        <v>14.16314929652597</v>
+      </c>
+      <c r="E75" t="n">
+        <v>0.4665</v>
+      </c>
+      <c r="F75" t="n">
+        <v>5.455</v>
+      </c>
+      <c r="G75" t="inlineStr">
+        <is>
+          <t>['1C4', '1C4']</t>
+        </is>
+      </c>
+      <c r="H75" t="inlineStr">
+        <is>
+          <t>['Fuc(a1-3)', 'Fuc(a1-6)']</t>
+        </is>
+      </c>
+      <c r="I75" t="inlineStr">
+        <is>
+          <t>['Fuc']</t>
+        </is>
+      </c>
+      <c r="J75" t="inlineStr">
+        <is>
+          <t>N</t>
         </is>
       </c>
     </row>
